--- a/kgstats-generated/2024.11.11/stats/xlsx/voc-marathon-top-by-haul.xlsx
+++ b/kgstats-generated/2024.11.11/stats/xlsx/voc-marathon-top-by-haul.xlsx
@@ -50,7 +50,7 @@
     <t>tyrpyr</t>
   </si>
   <si>
-    <t>1463 ч. 5 мин. 8 сек.</t>
+    <t>1463 ч. 05 мин. 08 сек.</t>
   </si>
   <si>
     <t>2</t>
@@ -104,7 +104,7 @@
     <t>natalishka</t>
   </si>
   <si>
-    <t>807 ч. 54 мин. 3 сек.</t>
+    <t>807 ч. 54 мин. 03 сек.</t>
   </si>
   <si>
     <t>8</t>
@@ -131,7 +131,7 @@
     <t>Lakira</t>
   </si>
   <si>
-    <t>544 ч. 58 мин. 8 сек.</t>
+    <t>544 ч. 58 мин. 08 сек.</t>
   </si>
   <si>
     <t>11</t>
@@ -194,7 +194,7 @@
     <t>Drumerspb</t>
   </si>
   <si>
-    <t>346 ч. 0 мин. 45 сек.</t>
+    <t>346 ч. 00 мин. 45 сек.</t>
   </si>
   <si>
     <t>18</t>
@@ -203,7 +203,7 @@
     <t>nezapivayu</t>
   </si>
   <si>
-    <t>340 ч. 6 мин. 56 сек.</t>
+    <t>340 ч. 06 мин. 56 сек.</t>
   </si>
   <si>
     <t>19</t>
@@ -212,7 +212,7 @@
     <t>KOSTYA410</t>
   </si>
   <si>
-    <t>338 ч. 6 мин. 35 сек.</t>
+    <t>338 ч. 06 мин. 35 сек.</t>
   </si>
   <si>
     <t>20</t>
@@ -230,7 +230,7 @@
     <t>qazwsxqwe2</t>
   </si>
   <si>
-    <t>328 ч. 55 мин. 0 сек.</t>
+    <t>328 ч. 55 мин. 00 сек.</t>
   </si>
   <si>
     <t>22</t>
@@ -302,7 +302,7 @@
     <t>Переборыч</t>
   </si>
   <si>
-    <t>292 ч. 6 мин. 54 сек.</t>
+    <t>292 ч. 06 мин. 54 сек.</t>
   </si>
   <si>
     <t>30</t>
@@ -311,7 +311,7 @@
     <t>Руфер</t>
   </si>
   <si>
-    <t>286 ч. 39 мин. 5 сек.</t>
+    <t>286 ч. 39 мин. 05 сек.</t>
   </si>
   <si>
     <t>31</t>
@@ -374,7 +374,7 @@
     <t>Speedyman</t>
   </si>
   <si>
-    <t>258 ч. 3 мин. 46 сек.</t>
+    <t>258 ч. 03 мин. 46 сек.</t>
   </si>
   <si>
     <t>38</t>
@@ -392,7 +392,7 @@
     <t>202</t>
   </si>
   <si>
-    <t>246 ч. 30 мин. 5 сек.</t>
+    <t>246 ч. 30 мин. 05 сек.</t>
   </si>
   <si>
     <t>40</t>
@@ -428,7 +428,7 @@
     <t>3Volta</t>
   </si>
   <si>
-    <t>237 ч. 2 мин. 53 сек.</t>
+    <t>237 ч. 02 мин. 53 сек.</t>
   </si>
   <si>
     <t>44</t>
@@ -455,7 +455,7 @@
     <t>Андруша</t>
   </si>
   <si>
-    <t>231 ч. 42 мин. 4 сек.</t>
+    <t>231 ч. 42 мин. 04 сек.</t>
   </si>
   <si>
     <t>47</t>
@@ -554,7 +554,7 @@
     <t>Shinobig</t>
   </si>
   <si>
-    <t>211 ч. 5 мин. 59 сек.</t>
+    <t>211 ч. 05 мин. 59 сек.</t>
   </si>
   <si>
     <t>58</t>
@@ -590,7 +590,7 @@
     <t>farochka</t>
   </si>
   <si>
-    <t>202 ч. 5 мин. 1 сек.</t>
+    <t>202 ч. 05 мин. 01 сек.</t>
   </si>
   <si>
     <t>62</t>
@@ -635,7 +635,7 @@
     <t>Leu</t>
   </si>
   <si>
-    <t>189 ч. 7 мин. 1 сек.</t>
+    <t>189 ч. 07 мин. 01 сек.</t>
   </si>
   <si>
     <t>67</t>
@@ -653,7 +653,7 @@
     <t>RODIS</t>
   </si>
   <si>
-    <t>184 ч. 19 мин. 7 сек.</t>
+    <t>184 ч. 19 мин. 07 сек.</t>
   </si>
   <si>
     <t>69</t>
@@ -698,7 +698,7 @@
     <t>Fermmer</t>
   </si>
   <si>
-    <t>178 ч. 41 мин. 2 сек.</t>
+    <t>178 ч. 41 мин. 02 сек.</t>
   </si>
   <si>
     <t>74</t>
@@ -707,7 +707,7 @@
     <t>Dobby_</t>
   </si>
   <si>
-    <t>177 ч. 48 мин. 4 сек.</t>
+    <t>177 ч. 48 мин. 04 сек.</t>
   </si>
   <si>
     <t>75</t>
@@ -716,7 +716,7 @@
     <t>carmero</t>
   </si>
   <si>
-    <t>174 ч. 4 мин. 24 сек.</t>
+    <t>174 ч. 04 мин. 24 сек.</t>
   </si>
   <si>
     <t>76</t>
@@ -788,7 +788,7 @@
     <t>Sergey0909</t>
   </si>
   <si>
-    <t>166 ч. 22 мин. 6 сек.</t>
+    <t>166 ч. 22 мин. 06 сек.</t>
   </si>
   <si>
     <t>84</t>
@@ -842,7 +842,7 @@
     <t>Анна_Банановна</t>
   </si>
   <si>
-    <t>159 ч. 6 мин. 17 сек.</t>
+    <t>159 ч. 06 мин. 17 сек.</t>
   </si>
   <si>
     <t>90</t>
@@ -896,7 +896,7 @@
     <t>HRUST</t>
   </si>
   <si>
-    <t>150 ч. 20 мин. 8 сек.</t>
+    <t>150 ч. 20 мин. 08 сек.</t>
   </si>
   <si>
     <t>96</t>
@@ -932,7 +932,7 @@
     <t>iOlga</t>
   </si>
   <si>
-    <t>142 ч. 38 мин. 3 сек.</t>
+    <t>142 ч. 38 мин. 03 сек.</t>
   </si>
   <si>
     <t>100</t>
@@ -1040,7 +1040,7 @@
     <t>CBETJIAHA</t>
   </si>
   <si>
-    <t>130 ч. 3 мин. 10 сек.</t>
+    <t>130 ч. 03 мин. 10 сек.</t>
   </si>
   <si>
     <t>112</t>
@@ -1094,7 +1094,7 @@
     <t>черепахаход</t>
   </si>
   <si>
-    <t>125 ч. 0 мин. 51 сек.</t>
+    <t>125 ч. 00 мин. 51 сек.</t>
   </si>
   <si>
     <t>118</t>
@@ -1139,7 +1139,7 @@
     <t>altavista_live</t>
   </si>
   <si>
-    <t>121 ч. 19 мин. 8 сек.</t>
+    <t>121 ч. 19 мин. 08 сек.</t>
   </si>
   <si>
     <t>123</t>
@@ -1148,7 +1148,7 @@
     <t>dosh</t>
   </si>
   <si>
-    <t>121 ч. 3 мин. 37 сек.</t>
+    <t>121 ч. 03 мин. 37 сек.</t>
   </si>
   <si>
     <t>124</t>
@@ -1211,7 +1211,7 @@
     <t>snov</t>
   </si>
   <si>
-    <t>116 ч. 7 мин. 21 сек.</t>
+    <t>116 ч. 07 мин. 21 сек.</t>
   </si>
   <si>
     <t>131</t>
@@ -1247,7 +1247,7 @@
     <t>Jon31</t>
   </si>
   <si>
-    <t>114 ч. 4 мин. 5 сек.</t>
+    <t>114 ч. 04 мин. 05 сек.</t>
   </si>
   <si>
     <t>135</t>
@@ -1265,7 +1265,7 @@
     <t>shibormot</t>
   </si>
   <si>
-    <t>112 ч. 35 мин. 9 сек.</t>
+    <t>112 ч. 35 мин. 09 сек.</t>
   </si>
   <si>
     <t>137</t>
@@ -1274,7 +1274,7 @@
     <t>evroman</t>
   </si>
   <si>
-    <t>112 ч. 5 мин. 0 сек.</t>
+    <t>112 ч. 05 мин. 00 сек.</t>
   </si>
   <si>
     <t>138</t>
@@ -1283,7 +1283,7 @@
     <t>MironART</t>
   </si>
   <si>
-    <t>111 ч. 45 мин. 4 сек.</t>
+    <t>111 ч. 45 мин. 04 сек.</t>
   </si>
   <si>
     <t>139</t>
@@ -1319,7 +1319,7 @@
     <t>coop</t>
   </si>
   <si>
-    <t>104 ч. 52 мин. 3 сек.</t>
+    <t>104 ч. 52 мин. 03 сек.</t>
   </si>
   <si>
     <t>143</t>
@@ -1328,7 +1328,7 @@
     <t>agor</t>
   </si>
   <si>
-    <t>103 ч. 2 мин. 4 сек.</t>
+    <t>103 ч. 02 мин. 04 сек.</t>
   </si>
   <si>
     <t>144</t>
@@ -1382,7 +1382,7 @@
     <t>lister32</t>
   </si>
   <si>
-    <t>101 ч. 39 мин. 0 сек.</t>
+    <t>101 ч. 39 мин. 00 сек.</t>
   </si>
   <si>
     <t>150</t>
@@ -1427,7 +1427,7 @@
     <t>hippo2047</t>
   </si>
   <si>
-    <t>99 ч. 32 мин. 5 сек.</t>
+    <t>99 ч. 32 мин. 05 сек.</t>
   </si>
   <si>
     <t>155</t>
@@ -1463,7 +1463,7 @@
     <t>Davydoff</t>
   </si>
   <si>
-    <t>98 ч. 33 мин. 5 сек.</t>
+    <t>98 ч. 33 мин. 05 сек.</t>
   </si>
   <si>
     <t>159</t>
@@ -1526,7 +1526,7 @@
     <t>artt</t>
   </si>
   <si>
-    <t>95 ч. 38 мин. 1 сек.</t>
+    <t>95 ч. 38 мин. 01 сек.</t>
   </si>
   <si>
     <t>166</t>
@@ -1544,7 +1544,7 @@
     <t>Clara_Oswald</t>
   </si>
   <si>
-    <t>95 ч. 22 мин. 5 сек.</t>
+    <t>95 ч. 22 мин. 05 сек.</t>
   </si>
   <si>
     <t>168</t>
@@ -1562,7 +1562,7 @@
     <t>RoRio</t>
   </si>
   <si>
-    <t>94 ч. 7 мин. 7 сек.</t>
+    <t>94 ч. 07 мин. 07 сек.</t>
   </si>
   <si>
     <t>170</t>
@@ -1589,7 +1589,7 @@
     <t>Wassja</t>
   </si>
   <si>
-    <t>93 ч. 8 мин. 19 сек.</t>
+    <t>93 ч. 08 мин. 19 сек.</t>
   </si>
   <si>
     <t>173</t>
@@ -1616,7 +1616,7 @@
     <t>dmitriy156</t>
   </si>
   <si>
-    <t>92 ч. 9 мин. 55 сек.</t>
+    <t>92 ч. 09 мин. 55 сек.</t>
   </si>
   <si>
     <t>176</t>
@@ -1715,7 +1715,7 @@
     <t>Марафонолюбец</t>
   </si>
   <si>
-    <t>88 ч. 53 мин. 3 сек.</t>
+    <t>88 ч. 53 мин. 03 сек.</t>
   </si>
   <si>
     <t>187</t>
@@ -1724,7 +1724,7 @@
     <t>ВАТ</t>
   </si>
   <si>
-    <t>88 ч. 4 мин. 54 сек.</t>
+    <t>88 ч. 04 мин. 54 сек.</t>
   </si>
   <si>
     <t>188</t>
@@ -1742,7 +1742,7 @@
     <t>akanat</t>
   </si>
   <si>
-    <t>86 ч. 51 мин. 9 сек.</t>
+    <t>86 ч. 51 мин. 09 сек.</t>
   </si>
   <si>
     <t>190</t>
@@ -1760,7 +1760,7 @@
     <t>olimo</t>
   </si>
   <si>
-    <t>85 ч. 9 мин. 52 сек.</t>
+    <t>85 ч. 09 мин. 52 сек.</t>
   </si>
   <si>
     <t>192</t>
@@ -1769,7 +1769,7 @@
     <t>kult</t>
   </si>
   <si>
-    <t>85 ч. 9 мин. 7 сек.</t>
+    <t>85 ч. 09 мин. 07 сек.</t>
   </si>
   <si>
     <t>193</t>
@@ -1778,7 +1778,7 @@
     <t>Yura800</t>
   </si>
   <si>
-    <t>84 ч. 58 мин. 0 сек.</t>
+    <t>84 ч. 58 мин. 00 сек.</t>
   </si>
   <si>
     <t>194</t>
@@ -1832,7 +1832,7 @@
     <t>ikim_online</t>
   </si>
   <si>
-    <t>83 ч. 16 мин. 0 сек.</t>
+    <t>83 ч. 16 мин. 00 сек.</t>
   </si>
   <si>
     <t>200</t>
@@ -1856,7 +1856,7 @@
     <t>Oleg9534</t>
   </si>
   <si>
-    <t>82 ч. 31 мин. 9 сек.</t>
+    <t>82 ч. 31 мин. 09 сек.</t>
   </si>
   <si>
     <t>203</t>
@@ -1937,7 +1937,7 @@
     <t>Виталька</t>
   </si>
   <si>
-    <t>79 ч. 11 мин. 9 сек.</t>
+    <t>79 ч. 11 мин. 09 сек.</t>
   </si>
   <si>
     <t>212</t>
@@ -1991,7 +1991,7 @@
     <t>омичка</t>
   </si>
   <si>
-    <t>77 ч. 0 мин. 17 сек.</t>
+    <t>77 ч. 00 мин. 17 сек.</t>
   </si>
   <si>
     <t>218</t>
@@ -2036,7 +2036,7 @@
     <t>gosha_bel</t>
   </si>
   <si>
-    <t>75 ч. 8 мин. 23 сек.</t>
+    <t>75 ч. 08 мин. 23 сек.</t>
   </si>
   <si>
     <t>223</t>
@@ -2045,7 +2045,7 @@
     <t>HUMAN</t>
   </si>
   <si>
-    <t>74 ч. 28 мин. 3 сек.</t>
+    <t>74 ч. 28 мин. 03 сек.</t>
   </si>
   <si>
     <t>224</t>
@@ -2054,7 +2054,7 @@
     <t>ps1501</t>
   </si>
   <si>
-    <t>74 ч. 4 мин. 58 сек.</t>
+    <t>74 ч. 04 мин. 58 сек.</t>
   </si>
   <si>
     <t>225</t>
@@ -2090,7 +2090,7 @@
     <t>zvv</t>
   </si>
   <si>
-    <t>73 ч. 2 мин. 21 сек.</t>
+    <t>73 ч. 02 мин. 21 сек.</t>
   </si>
   <si>
     <t>229</t>
@@ -2099,7 +2099,7 @@
     <t>Grumbler69</t>
   </si>
   <si>
-    <t>73 ч. 1 мин. 10 сек.</t>
+    <t>73 ч. 01 мин. 10 сек.</t>
   </si>
   <si>
     <t>230</t>
@@ -2135,7 +2135,7 @@
     <t>Велимира</t>
   </si>
   <si>
-    <t>72 ч. 16 мин. 7 сек.</t>
+    <t>72 ч. 16 мин. 07 сек.</t>
   </si>
   <si>
     <t>234</t>
@@ -2162,7 +2162,7 @@
     <t>vad375</t>
   </si>
   <si>
-    <t>71 ч. 13 мин. 8 сек.</t>
+    <t>71 ч. 13 мин. 08 сек.</t>
   </si>
   <si>
     <t>237</t>
@@ -2207,7 +2207,7 @@
     <t>firelly</t>
   </si>
   <si>
-    <t>70 ч. 1 мин. 35 сек.</t>
+    <t>70 ч. 01 мин. 35 сек.</t>
   </si>
   <si>
     <t>242</t>
@@ -2216,7 +2216,7 @@
     <t>Алина_</t>
   </si>
   <si>
-    <t>70 ч. 1 мин. 2 сек.</t>
+    <t>70 ч. 01 мин. 02 сек.</t>
   </si>
   <si>
     <t>243</t>
@@ -2252,7 +2252,7 @@
     <t>Salamandra555</t>
   </si>
   <si>
-    <t>69 ч. 1 мин. 45 сек.</t>
+    <t>69 ч. 01 мин. 45 сек.</t>
   </si>
   <si>
     <t>247</t>
@@ -2288,7 +2288,7 @@
     <t>Gridnout</t>
   </si>
   <si>
-    <t>67 ч. 53 мин. 0 сек.</t>
+    <t>67 ч. 53 мин. 00 сек.</t>
   </si>
   <si>
     <t>251</t>
@@ -2315,7 +2315,7 @@
     <t>Gardenstone</t>
   </si>
   <si>
-    <t>67 ч. 14 мин. 0 сек.</t>
+    <t>67 ч. 14 мин. 00 сек.</t>
   </si>
   <si>
     <t>254</t>
@@ -2324,7 +2324,7 @@
     <t>4681</t>
   </si>
   <si>
-    <t>67 ч. 9 мин. 6 сек.</t>
+    <t>67 ч. 09 мин. 06 сек.</t>
   </si>
   <si>
     <t>255</t>
@@ -2396,7 +2396,7 @@
     <t>fedind</t>
   </si>
   <si>
-    <t>65 ч. 9 мин. 22 сек.</t>
+    <t>65 ч. 09 мин. 22 сек.</t>
   </si>
   <si>
     <t>263</t>
@@ -2423,7 +2423,7 @@
     <t>__Anastasia__</t>
   </si>
   <si>
-    <t>64 ч. 24 мин. 6 сек.</t>
+    <t>64 ч. 24 мин. 06 сек.</t>
   </si>
   <si>
     <t>266</t>
@@ -2477,7 +2477,7 @@
     <t>ivanova1789</t>
   </si>
   <si>
-    <t>62 ч. 25 мин. 7 сек.</t>
+    <t>62 ч. 25 мин. 07 сек.</t>
   </si>
   <si>
     <t>272</t>
@@ -2513,7 +2513,7 @@
     <t>123text_ru</t>
   </si>
   <si>
-    <t>61 ч. 37 мин. 3 сек.</t>
+    <t>61 ч. 37 мин. 03 сек.</t>
   </si>
   <si>
     <t>276</t>
@@ -2522,7 +2522,7 @@
     <t>Диктатор</t>
   </si>
   <si>
-    <t>61 ч. 23 мин. 3 сек.</t>
+    <t>61 ч. 23 мин. 03 сек.</t>
   </si>
   <si>
     <t>277</t>
@@ -2531,7 +2531,7 @@
     <t>brlch</t>
   </si>
   <si>
-    <t>61 ч. 9 мин. 57 сек.</t>
+    <t>61 ч. 09 мин. 57 сек.</t>
   </si>
   <si>
     <t>278</t>
@@ -2540,7 +2540,7 @@
     <t>anomura</t>
   </si>
   <si>
-    <t>61 ч. 3 мин. 52 сек.</t>
+    <t>61 ч. 03 мин. 52 сек.</t>
   </si>
   <si>
     <t>279</t>
@@ -2567,7 +2567,7 @@
     <t>Клевая_черепаха</t>
   </si>
   <si>
-    <t>60 ч. 8 мин. 28 сек.</t>
+    <t>60 ч. 08 мин. 28 сек.</t>
   </si>
   <si>
     <t>282</t>
@@ -2576,7 +2576,7 @@
     <t>Ethicon</t>
   </si>
   <si>
-    <t>60 ч. 4 мин. 17 сек.</t>
+    <t>60 ч. 04 мин. 17 сек.</t>
   </si>
   <si>
     <t>283</t>
@@ -2603,7 +2603,7 @@
     <t>Рыжая_</t>
   </si>
   <si>
-    <t>59 ч. 37 мин. 9 сек.</t>
+    <t>59 ч. 37 мин. 09 сек.</t>
   </si>
   <si>
     <t>286</t>
@@ -2621,7 +2621,7 @@
     <t>Yflytuz</t>
   </si>
   <si>
-    <t>59 ч. 0 мин. 33 сек.</t>
+    <t>59 ч. 00 мин. 33 сек.</t>
   </si>
   <si>
     <t>288</t>
@@ -2648,7 +2648,7 @@
     <t>IOd</t>
   </si>
   <si>
-    <t>58 ч. 46 мин. 9 сек.</t>
+    <t>58 ч. 46 мин. 09 сек.</t>
   </si>
   <si>
     <t>291</t>
@@ -2711,7 +2711,7 @@
     <t>daniyar5436</t>
   </si>
   <si>
-    <t>57 ч. 9 мин. 30 сек.</t>
+    <t>57 ч. 09 мин. 30 сек.</t>
   </si>
   <si>
     <t>298</t>
@@ -2720,7 +2720,7 @@
     <t>Тормоз_ручной</t>
   </si>
   <si>
-    <t>57 ч. 2 мин. 0 сек.</t>
+    <t>57 ч. 02 мин. 00 сек.</t>
   </si>
   <si>
     <t>299</t>
@@ -2792,7 +2792,7 @@
     <t>совет-солдат</t>
   </si>
   <si>
-    <t>56 ч. 8 мин. 44 сек.</t>
+    <t>56 ч. 08 мин. 44 сек.</t>
   </si>
   <si>
     <t>307</t>
@@ -2801,7 +2801,7 @@
     <t>Gorynych</t>
   </si>
   <si>
-    <t>56 ч. 6 мин. 43 сек.</t>
+    <t>56 ч. 06 мин. 43 сек.</t>
   </si>
   <si>
     <t>308</t>
@@ -2810,7 +2810,7 @@
     <t>Русинов</t>
   </si>
   <si>
-    <t>56 ч. 6 мин. 2 сек.</t>
+    <t>56 ч. 06 мин. 02 сек.</t>
   </si>
   <si>
     <t>309</t>
@@ -2819,7 +2819,7 @@
     <t>menoxe</t>
   </si>
   <si>
-    <t>56 ч. 0 мин. 59 сек.</t>
+    <t>56 ч. 00 мин. 59 сек.</t>
   </si>
   <si>
     <t>310</t>
@@ -2828,7 +2828,7 @@
     <t>Thtas</t>
   </si>
   <si>
-    <t>56 ч. 0 мин. 38 сек.</t>
+    <t>56 ч. 00 мин. 38 сек.</t>
   </si>
   <si>
     <t>311</t>
@@ -2873,7 +2873,7 @@
     <t>awefork</t>
   </si>
   <si>
-    <t>55 ч. 8 мин. 43 сек.</t>
+    <t>55 ч. 08 мин. 43 сек.</t>
   </si>
   <si>
     <t>316</t>
@@ -2882,7 +2882,7 @@
     <t>TRIANON</t>
   </si>
   <si>
-    <t>55 ч. 4 мин. 4 сек.</t>
+    <t>55 ч. 04 мин. 04 сек.</t>
   </si>
   <si>
     <t>317</t>
@@ -2891,7 +2891,7 @@
     <t>ольгуша2010</t>
   </si>
   <si>
-    <t>55 ч. 3 мин. 56 сек.</t>
+    <t>55 ч. 03 мин. 56 сек.</t>
   </si>
   <si>
     <t>318</t>
@@ -2945,7 +2945,7 @@
     <t>Alsim</t>
   </si>
   <si>
-    <t>54 ч. 2 мин. 52 сек.</t>
+    <t>54 ч. 02 мин. 52 сек.</t>
   </si>
   <si>
     <t>324</t>
@@ -2954,7 +2954,7 @@
     <t>Krivoy_Palec</t>
   </si>
   <si>
-    <t>54 ч. 0 мин. 8 сек.</t>
+    <t>54 ч. 00 мин. 08 сек.</t>
   </si>
   <si>
     <t>325</t>
@@ -3035,7 +3035,7 @@
     <t>Фиксик</t>
   </si>
   <si>
-    <t>52 ч. 29 мин. 7 сек.</t>
+    <t>52 ч. 29 мин. 07 сек.</t>
   </si>
   <si>
     <t>334</t>
@@ -3062,7 +3062,7 @@
     <t>uri11</t>
   </si>
   <si>
-    <t>52 ч. 1 мин. 51 сек.</t>
+    <t>52 ч. 01 мин. 51 сек.</t>
   </si>
   <si>
     <t>337</t>
@@ -3116,7 +3116,7 @@
     <t>SpiritCrusher</t>
   </si>
   <si>
-    <t>51 ч. 38 мин. 3 сек.</t>
+    <t>51 ч. 38 мин. 03 сек.</t>
   </si>
   <si>
     <t>343</t>
@@ -3152,7 +3152,7 @@
     <t>ОлегК</t>
   </si>
   <si>
-    <t>51 ч. 7 мин. 9 сек.</t>
+    <t>51 ч. 07 мин. 09 сек.</t>
   </si>
   <si>
     <t>347</t>
@@ -3161,7 +3161,7 @@
     <t>SkriFo</t>
   </si>
   <si>
-    <t>51 ч. 2 мин. 39 сек.</t>
+    <t>51 ч. 02 мин. 39 сек.</t>
   </si>
   <si>
     <t>348</t>
@@ -3170,7 +3170,7 @@
     <t>uncleSharik</t>
   </si>
   <si>
-    <t>50 ч. 59 мин. 0 сек.</t>
+    <t>50 ч. 59 мин. 00 сек.</t>
   </si>
   <si>
     <t>349</t>
@@ -3179,7 +3179,7 @@
     <t>LadyIrina</t>
   </si>
   <si>
-    <t>50 ч. 47 мин. 2 сек.</t>
+    <t>50 ч. 47 мин. 02 сек.</t>
   </si>
   <si>
     <t>350</t>
@@ -3188,7 +3188,7 @@
     <t>турандот</t>
   </si>
   <si>
-    <t>50 ч. 46 мин. 7 сек.</t>
+    <t>50 ч. 46 мин. 07 сек.</t>
   </si>
   <si>
     <t>351</t>
@@ -3269,7 +3269,7 @@
     <t>TuaDop</t>
   </si>
   <si>
-    <t>49 ч. 57 мин. 5 сек.</t>
+    <t>49 ч. 57 мин. 05 сек.</t>
   </si>
   <si>
     <t>360</t>
@@ -3314,7 +3314,7 @@
     <t>Lanamay</t>
   </si>
   <si>
-    <t>49 ч. 7 мин. 3 сек.</t>
+    <t>49 ч. 07 мин. 03 сек.</t>
   </si>
   <si>
     <t>365</t>
@@ -3323,7 +3323,7 @@
     <t>tarak</t>
   </si>
   <si>
-    <t>49 ч. 2 мин. 9 сек.</t>
+    <t>49 ч. 02 мин. 09 сек.</t>
   </si>
   <si>
     <t>366</t>
@@ -3332,7 +3332,7 @@
     <t>Mary27</t>
   </si>
   <si>
-    <t>49 ч. 0 мин. 45 сек.</t>
+    <t>49 ч. 00 мин. 45 сек.</t>
   </si>
   <si>
     <t>367</t>
@@ -3359,7 +3359,7 @@
     <t>takobus</t>
   </si>
   <si>
-    <t>48 ч. 33 мин. 8 сек.</t>
+    <t>48 ч. 33 мин. 08 сек.</t>
   </si>
   <si>
     <t>370</t>
@@ -3395,7 +3395,7 @@
     <t>харцызяка</t>
   </si>
   <si>
-    <t>48 ч. 7 мин. 32 сек.</t>
+    <t>48 ч. 07 мин. 32 сек.</t>
   </si>
   <si>
     <t>374</t>
@@ -3404,7 +3404,7 @@
     <t>Wassjaja</t>
   </si>
   <si>
-    <t>48 ч. 5 мин. 9 сек.</t>
+    <t>48 ч. 05 мин. 09 сек.</t>
   </si>
   <si>
     <t>375</t>
@@ -3431,7 +3431,7 @@
     <t>Vet0chka</t>
   </si>
   <si>
-    <t>47 ч. 50 мин. 4 сек.</t>
+    <t>47 ч. 50 мин. 04 сек.</t>
   </si>
   <si>
     <t>378</t>
@@ -3503,7 +3503,7 @@
     <t>tatava</t>
   </si>
   <si>
-    <t>47 ч. 17 мин. 9 сек.</t>
+    <t>47 ч. 17 мин. 09 сек.</t>
   </si>
   <si>
     <t>386–387</t>
@@ -3512,7 +3512,7 @@
     <t>nick_nickovich</t>
   </si>
   <si>
-    <t>47 ч. 9 мин. 39 сек.</t>
+    <t>47 ч. 09 мин. 39 сек.</t>
   </si>
   <si>
     <t>ggs</t>
@@ -3524,7 +3524,7 @@
     <t>nigmyar</t>
   </si>
   <si>
-    <t>47 ч. 1 мин. 27 сек.</t>
+    <t>47 ч. 01 мин. 27 сек.</t>
   </si>
   <si>
     <t>389</t>
@@ -3533,7 +3533,7 @@
     <t>meze</t>
   </si>
   <si>
-    <t>47 ч. 0 мин. 12 сек.</t>
+    <t>47 ч. 00 мин. 12 сек.</t>
   </si>
   <si>
     <t>390</t>
@@ -3560,7 +3560,7 @@
     <t>Пользователь</t>
   </si>
   <si>
-    <t>46 ч. 47 мин. 5 сек.</t>
+    <t>46 ч. 47 мин. 05 сек.</t>
   </si>
   <si>
     <t>393</t>
@@ -3605,7 +3605,7 @@
     <t>humson</t>
   </si>
   <si>
-    <t>46 ч. 4 мин. 44 сек.</t>
+    <t>46 ч. 04 мин. 44 сек.</t>
   </si>
   <si>
     <t>398</t>
@@ -3623,7 +3623,7 @@
     <t>IlinaPolina</t>
   </si>
   <si>
-    <t>45 ч. 58 мин. 5 сек.</t>
+    <t>45 ч. 58 мин. 05 сек.</t>
   </si>
   <si>
     <t>400</t>
@@ -3659,7 +3659,7 @@
     <t>Origin</t>
   </si>
   <si>
-    <t>45 ч. 15 мин. 7 сек.</t>
+    <t>45 ч. 15 мин. 07 сек.</t>
   </si>
   <si>
     <t>404</t>
@@ -3677,7 +3677,7 @@
     <t>Fuuruub</t>
   </si>
   <si>
-    <t>45 ч. 7 мин. 51 сек.</t>
+    <t>45 ч. 07 мин. 51 сек.</t>
   </si>
   <si>
     <t>406</t>
@@ -3686,7 +3686,7 @@
     <t>Razip</t>
   </si>
   <si>
-    <t>45 ч. 5 мин. 53 сек.</t>
+    <t>45 ч. 05 мин. 53 сек.</t>
   </si>
   <si>
     <t>407</t>
@@ -3722,7 +3722,7 @@
     <t>Буквы</t>
   </si>
   <si>
-    <t>44 ч. 6 мин. 59 сек.</t>
+    <t>44 ч. 06 мин. 59 сек.</t>
   </si>
   <si>
     <t>411</t>
@@ -3803,7 +3803,7 @@
     <t>Hovga</t>
   </si>
   <si>
-    <t>43 ч. 8 мин. 24 сек.</t>
+    <t>43 ч. 08 мин. 24 сек.</t>
   </si>
   <si>
     <t>420</t>
@@ -3812,7 +3812,7 @@
     <t>samaja-samaja</t>
   </si>
   <si>
-    <t>43 ч. 8 мин. 1 сек.</t>
+    <t>43 ч. 08 мин. 01 сек.</t>
   </si>
   <si>
     <t>421</t>
@@ -3821,7 +3821,7 @@
     <t>Нежная</t>
   </si>
   <si>
-    <t>43 ч. 6 мин. 37 сек.</t>
+    <t>43 ч. 06 мин. 37 сек.</t>
   </si>
   <si>
     <t>422</t>
@@ -3830,7 +3830,7 @@
     <t>Healt</t>
   </si>
   <si>
-    <t>43 ч. 2 мин. 33 сек.</t>
+    <t>43 ч. 02 мин. 33 сек.</t>
   </si>
   <si>
     <t>423</t>
@@ -3857,7 +3857,7 @@
     <t>AcidMan</t>
   </si>
   <si>
-    <t>42 ч. 46 мин. 6 сек.</t>
+    <t>42 ч. 46 мин. 06 сек.</t>
   </si>
   <si>
     <t>426</t>
@@ -3866,7 +3866,7 @@
     <t>Kanazei</t>
   </si>
   <si>
-    <t>42 ч. 36 мин. 8 сек.</t>
+    <t>42 ч. 36 мин. 08 сек.</t>
   </si>
   <si>
     <t>427</t>
@@ -3902,7 +3902,7 @@
     <t>Sfinks</t>
   </si>
   <si>
-    <t>42 ч. 9 мин. 14 сек.</t>
+    <t>42 ч. 09 мин. 14 сек.</t>
   </si>
   <si>
     <t>431</t>
@@ -3911,7 +3911,7 @@
     <t>WWW</t>
   </si>
   <si>
-    <t>42 ч. 0 мин. 18 сек.</t>
+    <t>42 ч. 00 мин. 18 сек.</t>
   </si>
   <si>
     <t>432</t>
@@ -3983,7 +3983,7 @@
     <t>vect</t>
   </si>
   <si>
-    <t>41 ч. 9 мин. 43 сек.</t>
+    <t>41 ч. 09 мин. 43 сек.</t>
   </si>
   <si>
     <t>440</t>
@@ -3992,7 +3992,7 @@
     <t>Jonny_E</t>
   </si>
   <si>
-    <t>41 ч. 4 мин. 51 сек.</t>
+    <t>41 ч. 04 мин. 51 сек.</t>
   </si>
   <si>
     <t>441</t>
@@ -4118,7 +4118,7 @@
     <t>RebeldeWay</t>
   </si>
   <si>
-    <t>40 ч. 8 мин. 52 сек.</t>
+    <t>40 ч. 08 мин. 52 сек.</t>
   </si>
   <si>
     <t>455</t>
@@ -4136,7 +4136,7 @@
     <t>Andre_Macareno</t>
   </si>
   <si>
-    <t>39 ч. 52 мин. 7 сек.</t>
+    <t>39 ч. 52 мин. 07 сек.</t>
   </si>
   <si>
     <t>457</t>
@@ -4190,7 +4190,7 @@
     <t>baobab67</t>
   </si>
   <si>
-    <t>39 ч. 2 мин. 29 сек.</t>
+    <t>39 ч. 02 мин. 29 сек.</t>
   </si>
   <si>
     <t>463</t>
@@ -4289,7 +4289,7 @@
     <t>бэтман</t>
   </si>
   <si>
-    <t>38 ч. 35 мин. 2 сек.</t>
+    <t>38 ч. 35 мин. 02 сек.</t>
   </si>
   <si>
     <t>474</t>
@@ -4307,7 +4307,7 @@
     <t>элля</t>
   </si>
   <si>
-    <t>38 ч. 28 мин. 9 сек.</t>
+    <t>38 ч. 28 мин. 09 сек.</t>
   </si>
   <si>
     <t>476</t>
@@ -4343,7 +4343,7 @@
     <t>ALEKS-POWER</t>
   </si>
   <si>
-    <t>38 ч. 16 мин. 5 сек.</t>
+    <t>38 ч. 16 мин. 05 сек.</t>
   </si>
   <si>
     <t>480</t>
@@ -4361,7 +4361,7 @@
     <t>Шизонт</t>
   </si>
   <si>
-    <t>38 ч. 9 мин. 18 сек.</t>
+    <t>38 ч. 09 мин. 18 сек.</t>
   </si>
   <si>
     <t>482</t>
@@ -4370,7 +4370,7 @@
     <t>Мариска</t>
   </si>
   <si>
-    <t>38 ч. 8 мин. 50 сек.</t>
+    <t>38 ч. 08 мин. 50 сек.</t>
   </si>
   <si>
     <t>483</t>
@@ -4379,7 +4379,7 @@
     <t>sanek2144</t>
   </si>
   <si>
-    <t>38 ч. 6 мин. 23 сек.</t>
+    <t>38 ч. 06 мин. 23 сек.</t>
   </si>
   <si>
     <t>484</t>
@@ -4388,7 +4388,7 @@
     <t>Groghal</t>
   </si>
   <si>
-    <t>38 ч. 3 мин. 40 сек.</t>
+    <t>38 ч. 03 мин. 40 сек.</t>
   </si>
   <si>
     <t>485</t>
@@ -4397,7 +4397,7 @@
     <t>ILyaDens</t>
   </si>
   <si>
-    <t>38 ч. 1 мин. 47 сек.</t>
+    <t>38 ч. 01 мин. 47 сек.</t>
   </si>
   <si>
     <t>486</t>
@@ -4487,7 +4487,7 @@
     <t>hrenovaya_klava</t>
   </si>
   <si>
-    <t>37 ч. 9 мин. 45 сек.</t>
+    <t>37 ч. 09 мин. 45 сек.</t>
   </si>
   <si>
     <t>496</t>
@@ -4496,7 +4496,7 @@
     <t>Galaad</t>
   </si>
   <si>
-    <t>37 ч. 8 мин. 1 сек.</t>
+    <t>37 ч. 08 мин. 01 сек.</t>
   </si>
   <si>
     <t>497</t>
@@ -4505,7 +4505,7 @@
     <t>anonym412</t>
   </si>
   <si>
-    <t>37 ч. 3 мин. 14 сек.</t>
+    <t>37 ч. 03 мин. 14 сек.</t>
   </si>
   <si>
     <t>498</t>
@@ -4550,7 +4550,7 @@
     <t>genie_1855</t>
   </si>
   <si>
-    <t>36 ч. 45 мин. 8 сек.</t>
+    <t>36 ч. 45 мин. 08 сек.</t>
   </si>
   <si>
     <t>503</t>
@@ -4649,7 +4649,7 @@
     <t>Дмитрий2</t>
   </si>
   <si>
-    <t>36 ч. 1 мин. 43 сек.</t>
+    <t>36 ч. 01 мин. 43 сек.</t>
   </si>
   <si>
     <t>514</t>
@@ -4676,7 +4676,7 @@
     <t>SEFER</t>
   </si>
   <si>
-    <t>35 ч. 53 мин. 4 сек.</t>
+    <t>35 ч. 53 мин. 04 сек.</t>
   </si>
   <si>
     <t>517</t>
@@ -4730,7 +4730,7 @@
     <t>korzhik-by</t>
   </si>
   <si>
-    <t>35 ч. 38 мин. 8 сек.</t>
+    <t>35 ч. 38 мин. 08 сек.</t>
   </si>
   <si>
     <t>523</t>
@@ -4748,7 +4748,7 @@
     <t>Атата</t>
   </si>
   <si>
-    <t>35 ч. 32 мин. 7 сек.</t>
+    <t>35 ч. 32 мин. 07 сек.</t>
   </si>
   <si>
     <t>525</t>
@@ -4766,7 +4766,7 @@
     <t>большой_плавец</t>
   </si>
   <si>
-    <t>35 ч. 29 мин. 3 сек.</t>
+    <t>35 ч. 29 мин. 03 сек.</t>
   </si>
   <si>
     <t>527</t>
@@ -4775,7 +4775,7 @@
     <t>impress_che</t>
   </si>
   <si>
-    <t>35 ч. 14 мин. 7 сек.</t>
+    <t>35 ч. 14 мин. 07 сек.</t>
   </si>
   <si>
     <t>528</t>
@@ -4784,7 +4784,7 @@
     <t>Ai_bek</t>
   </si>
   <si>
-    <t>35 ч. 8 мин. 16 сек.</t>
+    <t>35 ч. 08 мин. 16 сек.</t>
   </si>
   <si>
     <t>529</t>
@@ -4793,7 +4793,7 @@
     <t>kageneko</t>
   </si>
   <si>
-    <t>35 ч. 8 мин. 0 сек.</t>
+    <t>35 ч. 08 мин. 00 сек.</t>
   </si>
   <si>
     <t>530</t>
@@ -4802,7 +4802,7 @@
     <t>VanDyk</t>
   </si>
   <si>
-    <t>35 ч. 5 мин. 35 сек.</t>
+    <t>35 ч. 05 мин. 35 сек.</t>
   </si>
   <si>
     <t>531</t>
@@ -4811,7 +4811,7 @@
     <t>Клавишник</t>
   </si>
   <si>
-    <t>35 ч. 2 мин. 50 сек.</t>
+    <t>35 ч. 02 мин. 50 сек.</t>
   </si>
   <si>
     <t>532</t>
@@ -4865,7 +4865,7 @@
     <t>yurgen55</t>
   </si>
   <si>
-    <t>34 ч. 46 мин. 1 сек.</t>
+    <t>34 ч. 46 мин. 01 сек.</t>
   </si>
   <si>
     <t>538</t>
@@ -4919,7 +4919,7 @@
     <t>ИльдарВолжский</t>
   </si>
   <si>
-    <t>34 ч. 9 мин. 6 сек.</t>
+    <t>34 ч. 09 мин. 06 сек.</t>
   </si>
   <si>
     <t>544</t>
@@ -4928,7 +4928,7 @@
     <t>Кузькина</t>
   </si>
   <si>
-    <t>34 ч. 8 мин. 27 сек.</t>
+    <t>34 ч. 08 мин. 27 сек.</t>
   </si>
   <si>
     <t>545</t>
@@ -4937,7 +4937,7 @@
     <t>diskorkl</t>
   </si>
   <si>
-    <t>34 ч. 7 мин. 21 сек.</t>
+    <t>34 ч. 07 мин. 21 сек.</t>
   </si>
   <si>
     <t>546</t>
@@ -4946,7 +4946,7 @@
     <t>пава</t>
   </si>
   <si>
-    <t>34 ч. 6 мин. 35 сек.</t>
+    <t>34 ч. 06 мин. 35 сек.</t>
   </si>
   <si>
     <t>547</t>
@@ -4955,7 +4955,7 @@
     <t>Пофантазируем7</t>
   </si>
   <si>
-    <t>34 ч. 6 мин. 15 сек.</t>
+    <t>34 ч. 06 мин. 15 сек.</t>
   </si>
   <si>
     <t>548</t>
@@ -4964,7 +4964,7 @@
     <t>Leh</t>
   </si>
   <si>
-    <t>34 ч. 5 мин. 2 сек.</t>
+    <t>34 ч. 05 мин. 02 сек.</t>
   </si>
   <si>
     <t>549</t>
@@ -4973,7 +4973,7 @@
     <t>Sandi</t>
   </si>
   <si>
-    <t>34 ч. 3 мин. 18 сек.</t>
+    <t>34 ч. 03 мин. 18 сек.</t>
   </si>
   <si>
     <t>550</t>
@@ -4982,7 +4982,7 @@
     <t>1olegan</t>
   </si>
   <si>
-    <t>34 ч. 0 мин. 50 сек.</t>
+    <t>34 ч. 00 мин. 50 сек.</t>
   </si>
   <si>
     <t>551</t>
@@ -5027,7 +5027,7 @@
     <t>darkneon</t>
   </si>
   <si>
-    <t>33 ч. 54 мин. 4 сек.</t>
+    <t>33 ч. 54 мин. 04 сек.</t>
   </si>
   <si>
     <t>556</t>
@@ -5036,7 +5036,7 @@
     <t>Slavik89</t>
   </si>
   <si>
-    <t>33 ч. 54 мин. 3 сек.</t>
+    <t>33 ч. 54 мин. 03 сек.</t>
   </si>
   <si>
     <t>557</t>
@@ -5045,7 +5045,7 @@
     <t>Azrae11e</t>
   </si>
   <si>
-    <t>33 ч. 47 мин. 8 сек.</t>
+    <t>33 ч. 47 мин. 08 сек.</t>
   </si>
   <si>
     <t>558</t>
@@ -5153,7 +5153,7 @@
     <t>xcislav</t>
   </si>
   <si>
-    <t>33 ч. 16 мин. 4 сек.</t>
+    <t>33 ч. 16 мин. 04 сек.</t>
   </si>
   <si>
     <t>570</t>
@@ -5198,7 +5198,7 @@
     <t>second</t>
   </si>
   <si>
-    <t>33 ч. 9 мин. 50 сек.</t>
+    <t>33 ч. 09 мин. 50 сек.</t>
   </si>
   <si>
     <t>575</t>
@@ -5207,7 +5207,7 @@
     <t>WellMaxT</t>
   </si>
   <si>
-    <t>33 ч. 9 мин. 43 сек.</t>
+    <t>33 ч. 09 мин. 43 сек.</t>
   </si>
   <si>
     <t>576</t>
@@ -5216,7 +5216,7 @@
     <t>Lusil</t>
   </si>
   <si>
-    <t>33 ч. 4 мин. 28 сек.</t>
+    <t>33 ч. 04 мин. 28 сек.</t>
   </si>
   <si>
     <t>577</t>
@@ -5225,7 +5225,7 @@
     <t>exploration</t>
   </si>
   <si>
-    <t>33 ч. 3 мин. 45 сек.</t>
+    <t>33 ч. 03 мин. 45 сек.</t>
   </si>
   <si>
     <t>578</t>
@@ -5234,7 +5234,7 @@
     <t>nosferatum</t>
   </si>
   <si>
-    <t>33 ч. 3 мин. 6 сек.</t>
+    <t>33 ч. 03 мин. 06 сек.</t>
   </si>
   <si>
     <t>579</t>
@@ -5243,7 +5243,7 @@
     <t>хандеш</t>
   </si>
   <si>
-    <t>33 ч. 3 мин. 0 сек.</t>
+    <t>33 ч. 03 мин. 00 сек.</t>
   </si>
   <si>
     <t>580</t>
@@ -5261,7 +5261,7 @@
     <t>tvger</t>
   </si>
   <si>
-    <t>32 ч. 58 мин. 9 сек.</t>
+    <t>32 ч. 58 мин. 09 сек.</t>
   </si>
   <si>
     <t>582</t>
@@ -5288,7 +5288,7 @@
     <t>GvOzDi</t>
   </si>
   <si>
-    <t>32 ч. 48 мин. 4 сек.</t>
+    <t>32 ч. 48 мин. 04 сек.</t>
   </si>
   <si>
     <t>585</t>
@@ -5315,7 +5315,7 @@
     <t>Artesik</t>
   </si>
   <si>
-    <t>32 ч. 39 мин. 7 сек.</t>
+    <t>32 ч. 39 мин. 07 сек.</t>
   </si>
   <si>
     <t>588</t>
@@ -5369,7 +5369,7 @@
     <t>belkaoboroten</t>
   </si>
   <si>
-    <t>32 ч. 8 мин. 32 сек.</t>
+    <t>32 ч. 08 мин. 32 сек.</t>
   </si>
   <si>
     <t>594</t>
@@ -5378,7 +5378,7 @@
     <t>Alkhor</t>
   </si>
   <si>
-    <t>32 ч. 5 мин. 45 сек.</t>
+    <t>32 ч. 05 мин. 45 сек.</t>
   </si>
   <si>
     <t>595</t>
@@ -5387,7 +5387,7 @@
     <t>СераБелка</t>
   </si>
   <si>
-    <t>32 ч. 5 мин. 23 сек.</t>
+    <t>32 ч. 05 мин. 23 сек.</t>
   </si>
   <si>
     <t>596</t>
@@ -5396,7 +5396,7 @@
     <t>Шмакодявка</t>
   </si>
   <si>
-    <t>32 ч. 3 мин. 50 сек.</t>
+    <t>32 ч. 03 мин. 50 сек.</t>
   </si>
   <si>
     <t>597</t>
@@ -5450,7 +5450,7 @@
     <t>Cerry-Ledy</t>
   </si>
   <si>
-    <t>31 ч. 45 мин. 2 сек.</t>
+    <t>31 ч. 45 мин. 02 сек.</t>
   </si>
   <si>
     <t>603</t>
@@ -5459,7 +5459,7 @@
     <t>wizmon</t>
   </si>
   <si>
-    <t>31 ч. 43 мин. 6 сек.</t>
+    <t>31 ч. 43 мин. 06 сек.</t>
   </si>
   <si>
     <t>604</t>
@@ -5495,7 +5495,7 @@
     <t>December</t>
   </si>
   <si>
-    <t>31 ч. 37 мин. 5 сек.</t>
+    <t>31 ч. 37 мин. 05 сек.</t>
   </si>
   <si>
     <t>608</t>
@@ -5522,7 +5522,7 @@
     <t>Darwinian</t>
   </si>
   <si>
-    <t>31 ч. 22 мин. 8 сек.</t>
+    <t>31 ч. 22 мин. 08 сек.</t>
   </si>
   <si>
     <t>611</t>
@@ -5540,7 +5540,7 @@
     <t>Nuria</t>
   </si>
   <si>
-    <t>31 ч. 17 мин. 0 сек.</t>
+    <t>31 ч. 17 мин. 00 сек.</t>
   </si>
   <si>
     <t>613</t>
@@ -5558,7 +5558,7 @@
     <t>Annabeth</t>
   </si>
   <si>
-    <t>31 ч. 12 мин. 2 сек.</t>
+    <t>31 ч. 12 мин. 02 сек.</t>
   </si>
   <si>
     <t>615</t>
@@ -5567,7 +5567,7 @@
     <t>Maks83</t>
   </si>
   <si>
-    <t>31 ч. 9 мин. 10 сек.</t>
+    <t>31 ч. 09 мин. 10 сек.</t>
   </si>
   <si>
     <t>616</t>
@@ -5576,7 +5576,7 @@
     <t>suprem-012</t>
   </si>
   <si>
-    <t>31 ч. 8 мин. 36 сек.</t>
+    <t>31 ч. 08 мин. 36 сек.</t>
   </si>
   <si>
     <t>617</t>
@@ -5585,7 +5585,7 @@
     <t>Lexanni</t>
   </si>
   <si>
-    <t>31 ч. 3 мин. 47 сек.</t>
+    <t>31 ч. 03 мин. 47 сек.</t>
   </si>
   <si>
     <t>618</t>
@@ -5594,7 +5594,7 @@
     <t>endagorion</t>
   </si>
   <si>
-    <t>31 ч. 3 мин. 7 сек.</t>
+    <t>31 ч. 03 мин. 07 сек.</t>
   </si>
   <si>
     <t>619</t>
@@ -5630,7 +5630,7 @@
     <t>Tigerwood</t>
   </si>
   <si>
-    <t>30 ч. 46 мин. 6 сек.</t>
+    <t>30 ч. 46 мин. 06 сек.</t>
   </si>
   <si>
     <t>623</t>
@@ -5693,7 +5693,7 @@
     <t>teacherIgor</t>
   </si>
   <si>
-    <t>30 ч. 31 мин. 0 сек.</t>
+    <t>30 ч. 31 мин. 00 сек.</t>
   </si>
   <si>
     <t>630</t>
@@ -5702,7 +5702,7 @@
     <t>KaliaN-93RUS</t>
   </si>
   <si>
-    <t>30 ч. 27 мин. 8 сек.</t>
+    <t>30 ч. 27 мин. 08 сек.</t>
   </si>
   <si>
     <t>631</t>
@@ -5810,7 +5810,7 @@
     <t>ЕвгенияСеверная</t>
   </si>
   <si>
-    <t>30 ч. 11 мин. 1 сек.</t>
+    <t>30 ч. 11 мин. 01 сек.</t>
   </si>
   <si>
     <t>643</t>
@@ -5819,7 +5819,7 @@
     <t>Суоно</t>
   </si>
   <si>
-    <t>30 ч. 6 мин. 13 сек.</t>
+    <t>30 ч. 06 мин. 13 сек.</t>
   </si>
   <si>
     <t>644</t>
@@ -5891,7 +5891,7 @@
     <t>IvanProskura</t>
   </si>
   <si>
-    <t>29 ч. 40 мин. 6 сек.</t>
+    <t>29 ч. 40 мин. 06 сек.</t>
   </si>
   <si>
     <t>652</t>
@@ -5945,7 +5945,7 @@
     <t>Aleks1700</t>
   </si>
   <si>
-    <t>29 ч. 23 мин. 9 сек.</t>
+    <t>29 ч. 23 мин. 09 сек.</t>
   </si>
   <si>
     <t>658</t>
@@ -5990,7 +5990,7 @@
     <t>emercomisha</t>
   </si>
   <si>
-    <t>29 ч. 8 мин. 23 сек.</t>
+    <t>29 ч. 08 мин. 23 сек.</t>
   </si>
   <si>
     <t>663</t>
@@ -5999,7 +5999,7 @@
     <t>Archiffa</t>
   </si>
   <si>
-    <t>29 ч. 8 мин. 0 сек.</t>
+    <t>29 ч. 08 мин. 00 сек.</t>
   </si>
   <si>
     <t>664</t>
@@ -6008,7 +6008,7 @@
     <t>Michelik</t>
   </si>
   <si>
-    <t>29 ч. 7 мин. 17 сек.</t>
+    <t>29 ч. 07 мин. 17 сек.</t>
   </si>
   <si>
     <t>665</t>
@@ -6017,7 +6017,7 @@
     <t>Olfy</t>
   </si>
   <si>
-    <t>29 ч. 6 мин. 51 сек.</t>
+    <t>29 ч. 06 мин. 51 сек.</t>
   </si>
   <si>
     <t>666</t>
@@ -6026,7 +6026,7 @@
     <t>AstonMartinDB10</t>
   </si>
   <si>
-    <t>29 ч. 2 мин. 30 сек.</t>
+    <t>29 ч. 02 мин. 30 сек.</t>
   </si>
   <si>
     <t>667</t>
@@ -6035,7 +6035,7 @@
     <t>АЛЕКС99</t>
   </si>
   <si>
-    <t>29 ч. 1 мин. 59 сек.</t>
+    <t>29 ч. 01 мин. 59 сек.</t>
   </si>
   <si>
     <t>668</t>
@@ -6044,7 +6044,7 @@
     <t>Smouke</t>
   </si>
   <si>
-    <t>29 ч. 1 мин. 39 сек.</t>
+    <t>29 ч. 01 мин. 39 сек.</t>
   </si>
   <si>
     <t>669</t>
@@ -6053,7 +6053,7 @@
     <t>гага</t>
   </si>
   <si>
-    <t>29 ч. 1 мин. 33 сек.</t>
+    <t>29 ч. 01 мин. 33 сек.</t>
   </si>
   <si>
     <t>670</t>
@@ -6116,7 +6116,7 @@
     <t>юриус</t>
   </si>
   <si>
-    <t>28 ч. 48 мин. 4 сек.</t>
+    <t>28 ч. 48 мин. 04 сек.</t>
   </si>
   <si>
     <t>677</t>
@@ -6125,7 +6125,7 @@
     <t>Fudo</t>
   </si>
   <si>
-    <t>28 ч. 47 мин. 8 сек.</t>
+    <t>28 ч. 47 мин. 08 сек.</t>
   </si>
   <si>
     <t>678</t>
@@ -6143,7 +6143,7 @@
     <t>FunkyBoy</t>
   </si>
   <si>
-    <t>28 ч. 43 мин. 2 сек.</t>
+    <t>28 ч. 43 мин. 02 сек.</t>
   </si>
   <si>
     <t>680</t>
@@ -6188,7 +6188,7 @@
     <t>Dimax-</t>
   </si>
   <si>
-    <t>28 ч. 36 мин. 8 сек.</t>
+    <t>28 ч. 36 мин. 08 сек.</t>
   </si>
   <si>
     <t>685</t>
@@ -6233,7 +6233,7 @@
     <t>timnika</t>
   </si>
   <si>
-    <t>28 ч. 22 мин. 6 сек.</t>
+    <t>28 ч. 22 мин. 06 сек.</t>
   </si>
   <si>
     <t>690</t>
@@ -6251,7 +6251,7 @@
     <t>Sauvage</t>
   </si>
   <si>
-    <t>28 ч. 20 мин. 4 сек.</t>
+    <t>28 ч. 20 мин. 04 сек.</t>
   </si>
   <si>
     <t>692</t>
@@ -6278,7 +6278,7 @@
     <t>strawberries</t>
   </si>
   <si>
-    <t>28 ч. 8 мин. 29 сек.</t>
+    <t>28 ч. 08 мин. 29 сек.</t>
   </si>
   <si>
     <t>695</t>
@@ -6287,7 +6287,7 @@
     <t>Vi2GaN</t>
   </si>
   <si>
-    <t>28 ч. 5 мин. 58 сек.</t>
+    <t>28 ч. 05 мин. 58 сек.</t>
   </si>
   <si>
     <t>696</t>
@@ -6296,7 +6296,7 @@
     <t>lelikanet</t>
   </si>
   <si>
-    <t>28 ч. 5 мин. 21 сек.</t>
+    <t>28 ч. 05 мин. 21 сек.</t>
   </si>
   <si>
     <t>697</t>
@@ -6323,7 +6323,7 @@
     <t>непотомуль</t>
   </si>
   <si>
-    <t>27 ч. 57 мин. 4 сек.</t>
+    <t>27 ч. 57 мин. 04 сек.</t>
   </si>
   <si>
     <t>700</t>
@@ -6350,7 +6350,7 @@
     <t>Чумаходка</t>
   </si>
   <si>
-    <t>27 ч. 48 мин. 4 сек.</t>
+    <t>27 ч. 48 мин. 04 сек.</t>
   </si>
   <si>
     <t>703</t>
@@ -6368,7 +6368,7 @@
     <t>Мирный</t>
   </si>
   <si>
-    <t>27 ч. 46 мин. 6 сек.</t>
+    <t>27 ч. 46 мин. 06 сек.</t>
   </si>
   <si>
     <t>705</t>
@@ -6431,7 +6431,7 @@
     <t>Duke0013</t>
   </si>
   <si>
-    <t>27 ч. 33 мин. 5 сек.</t>
+    <t>27 ч. 33 мин. 05 сек.</t>
   </si>
   <si>
     <t>712</t>
@@ -6494,7 +6494,7 @@
     <t>1912</t>
   </si>
   <si>
-    <t>27 ч. 5 мин. 49 сек.</t>
+    <t>27 ч. 05 мин. 49 сек.</t>
   </si>
   <si>
     <t>719</t>
@@ -6503,7 +6503,7 @@
     <t>Sofyx</t>
   </si>
   <si>
-    <t>27 ч. 4 мин. 0 сек.</t>
+    <t>27 ч. 04 мин. 00 сек.</t>
   </si>
   <si>
     <t>720</t>
@@ -6512,7 +6512,7 @@
     <t>alexrus79</t>
   </si>
   <si>
-    <t>27 ч. 2 мин. 41 сек.</t>
+    <t>27 ч. 02 мин. 41 сек.</t>
   </si>
   <si>
     <t>721</t>
@@ -6521,7 +6521,7 @@
     <t>Smylic</t>
   </si>
   <si>
-    <t>27 ч. 2 мин. 10 сек.</t>
+    <t>27 ч. 02 мин. 10 сек.</t>
   </si>
   <si>
     <t>722</t>
@@ -6530,7 +6530,7 @@
     <t>Kemp</t>
   </si>
   <si>
-    <t>27 ч. 1 мин. 47 сек.</t>
+    <t>27 ч. 01 мин. 47 сек.</t>
   </si>
   <si>
     <t>723</t>
@@ -6539,7 +6539,7 @@
     <t>Aftermathen</t>
   </si>
   <si>
-    <t>27 ч. 1 мин. 28 сек.</t>
+    <t>27 ч. 01 мин. 28 сек.</t>
   </si>
   <si>
     <t>724</t>
@@ -6575,7 +6575,7 @@
     <t>200поСкоростной</t>
   </si>
   <si>
-    <t>26 ч. 56 мин. 8 сек.</t>
+    <t>26 ч. 56 мин. 08 сек.</t>
   </si>
   <si>
     <t>728</t>
@@ -6620,7 +6620,7 @@
     <t>cinis</t>
   </si>
   <si>
-    <t>26 ч. 50 мин. 5 сек.</t>
+    <t>26 ч. 50 мин. 05 сек.</t>
   </si>
   <si>
     <t>733</t>
@@ -6629,7 +6629,7 @@
     <t>name_snrl</t>
   </si>
   <si>
-    <t>26 ч. 48 мин. 8 сек.</t>
+    <t>26 ч. 48 мин. 08 сек.</t>
   </si>
   <si>
     <t>734</t>
@@ -6656,7 +6656,7 @@
     <t>Клаус</t>
   </si>
   <si>
-    <t>26 ч. 46 мин. 2 сек.</t>
+    <t>26 ч. 46 мин. 02 сек.</t>
   </si>
   <si>
     <t>737</t>
@@ -6665,7 +6665,7 @@
     <t>Tolstij</t>
   </si>
   <si>
-    <t>26 ч. 45 мин. 6 сек.</t>
+    <t>26 ч. 45 мин. 06 сек.</t>
   </si>
   <si>
     <t>738</t>
@@ -6728,7 +6728,7 @@
     <t>Бурик</t>
   </si>
   <si>
-    <t>26 ч. 32 мин. 1 сек.</t>
+    <t>26 ч. 32 мин. 01 сек.</t>
   </si>
   <si>
     <t>745</t>
@@ -6791,7 +6791,7 @@
     <t>kimisfan</t>
   </si>
   <si>
-    <t>26 ч. 24 мин. 8 сек.</t>
+    <t>26 ч. 24 мин. 08 сек.</t>
   </si>
   <si>
     <t>752</t>
@@ -6827,7 +6827,7 @@
     <t>I-and-I</t>
   </si>
   <si>
-    <t>26 ч. 9 мин. 9 сек.</t>
+    <t>26 ч. 09 мин. 09 сек.</t>
   </si>
   <si>
     <t>756</t>
@@ -6836,7 +6836,7 @@
     <t>VolodyaRzn</t>
   </si>
   <si>
-    <t>26 ч. 8 мин. 36 сек.</t>
+    <t>26 ч. 08 мин. 36 сек.</t>
   </si>
   <si>
     <t>757</t>
@@ -6845,7 +6845,7 @@
     <t>eka42003</t>
   </si>
   <si>
-    <t>26 ч. 8 мин. 10 сек.</t>
+    <t>26 ч. 08 мин. 10 сек.</t>
   </si>
   <si>
     <t>758</t>
@@ -6854,7 +6854,7 @@
     <t>plin2s</t>
   </si>
   <si>
-    <t>26 ч. 6 мин. 48 сек.</t>
+    <t>26 ч. 06 мин. 48 сек.</t>
   </si>
   <si>
     <t>759</t>
@@ -6863,7 +6863,7 @@
     <t>miha911208</t>
   </si>
   <si>
-    <t>26 ч. 3 мин. 47 сек.</t>
+    <t>26 ч. 03 мин. 47 сек.</t>
   </si>
   <si>
     <t>760</t>
@@ -6872,7 +6872,7 @@
     <t>leer</t>
   </si>
   <si>
-    <t>26 ч. 2 мин. 6 сек.</t>
+    <t>26 ч. 02 мин. 06 сек.</t>
   </si>
   <si>
     <t>761</t>
@@ -6881,7 +6881,7 @@
     <t>Manmax10</t>
   </si>
   <si>
-    <t>25 ч. 54 мин. 9 сек.</t>
+    <t>25 ч. 54 мин. 09 сек.</t>
   </si>
   <si>
     <t>762</t>
@@ -6890,7 +6890,7 @@
     <t>arhibaboon</t>
   </si>
   <si>
-    <t>25 ч. 54 мин. 1 сек.</t>
+    <t>25 ч. 54 мин. 01 сек.</t>
   </si>
   <si>
     <t>763</t>
@@ -6908,7 +6908,7 @@
     <t>fackT</t>
   </si>
   <si>
-    <t>25 ч. 51 мин. 8 сек.</t>
+    <t>25 ч. 51 мин. 08 сек.</t>
   </si>
   <si>
     <t>765</t>
@@ -6971,7 +6971,7 @@
     <t>korden</t>
   </si>
   <si>
-    <t>25 ч. 48 мин. 5 сек.</t>
+    <t>25 ч. 48 мин. 05 сек.</t>
   </si>
   <si>
     <t>772</t>
@@ -6989,7 +6989,7 @@
     <t>Стартуем</t>
   </si>
   <si>
-    <t>25 ч. 43 мин. 8 сек.</t>
+    <t>25 ч. 43 мин. 08 сек.</t>
   </si>
   <si>
     <t>774</t>
@@ -7061,7 +7061,7 @@
     <t>vvibm</t>
   </si>
   <si>
-    <t>25 ч. 28 мин. 3 сек.</t>
+    <t>25 ч. 28 мин. 03 сек.</t>
   </si>
   <si>
     <t>782</t>
@@ -7070,7 +7070,7 @@
     <t>Алексей_Дао</t>
   </si>
   <si>
-    <t>25 ч. 28 мин. 1 сек.</t>
+    <t>25 ч. 28 мин. 01 сек.</t>
   </si>
   <si>
     <t>783</t>
@@ -7097,7 +7097,7 @@
     <t>Sexyponochka</t>
   </si>
   <si>
-    <t>25 ч. 26 мин. 5 сек.</t>
+    <t>25 ч. 26 мин. 05 сек.</t>
   </si>
   <si>
     <t>786</t>
@@ -7154,7 +7154,7 @@
     <t>D1mchik</t>
   </si>
   <si>
-    <t>25 ч. 22 мин. 3 сек.</t>
+    <t>25 ч. 22 мин. 03 сек.</t>
   </si>
   <si>
     <t>793</t>
@@ -7199,7 +7199,7 @@
     <t>Кросул</t>
   </si>
   <si>
-    <t>25 ч. 13 мин. 6 сек.</t>
+    <t>25 ч. 13 мин. 06 сек.</t>
   </si>
   <si>
     <t>798</t>
@@ -7226,7 +7226,7 @@
     <t>Artursrst</t>
   </si>
   <si>
-    <t>25 ч. 9 мин. 29 сек.</t>
+    <t>25 ч. 09 мин. 29 сек.</t>
   </si>
   <si>
     <t>801</t>
@@ -7235,7 +7235,7 @@
     <t>Trantar</t>
   </si>
   <si>
-    <t>25 ч. 8 мин. 7 сек.</t>
+    <t>25 ч. 08 мин. 07 сек.</t>
   </si>
   <si>
     <t>802</t>
@@ -7244,7 +7244,7 @@
     <t>Razorage</t>
   </si>
   <si>
-    <t>25 ч. 6 мин. 34 сек.</t>
+    <t>25 ч. 06 мин. 34 сек.</t>
   </si>
   <si>
     <t>803</t>
@@ -7253,7 +7253,7 @@
     <t>Муркошка</t>
   </si>
   <si>
-    <t>25 ч. 6 мин. 3 сек.</t>
+    <t>25 ч. 06 мин. 03 сек.</t>
   </si>
   <si>
     <t>804</t>
@@ -7262,7 +7262,7 @@
     <t>flebushe</t>
   </si>
   <si>
-    <t>25 ч. 3 мин. 44 сек.</t>
+    <t>25 ч. 03 мин. 44 сек.</t>
   </si>
   <si>
     <t>805</t>
@@ -7271,7 +7271,7 @@
     <t>Kanzi</t>
   </si>
   <si>
-    <t>25 ч. 3 мин. 24 сек.</t>
+    <t>25 ч. 03 мин. 24 сек.</t>
   </si>
   <si>
     <t>806</t>
@@ -7280,7 +7280,7 @@
     <t>LevinGTO</t>
   </si>
   <si>
-    <t>25 ч. 2 мин. 51 сек.</t>
+    <t>25 ч. 02 мин. 51 сек.</t>
   </si>
   <si>
     <t>807</t>
@@ -7307,7 +7307,7 @@
     <t>Passer</t>
   </si>
   <si>
-    <t>24 ч. 58 мин. 9 сек.</t>
+    <t>24 ч. 58 мин. 09 сек.</t>
   </si>
   <si>
     <t>810</t>
@@ -7325,7 +7325,7 @@
     <t>die-hard</t>
   </si>
   <si>
-    <t>24 ч. 57 мин. 6 сек.</t>
+    <t>24 ч. 57 мин. 06 сек.</t>
   </si>
   <si>
     <t>812</t>
@@ -7334,7 +7334,7 @@
     <t>оно</t>
   </si>
   <si>
-    <t>24 ч. 56 мин. 9 сек.</t>
+    <t>24 ч. 56 мин. 09 сек.</t>
   </si>
   <si>
     <t>813</t>
@@ -7379,7 +7379,7 @@
     <t>68Liss</t>
   </si>
   <si>
-    <t>24 ч. 43 мин. 6 сек.</t>
+    <t>24 ч. 43 мин. 06 сек.</t>
   </si>
   <si>
     <t>818</t>
@@ -7406,7 +7406,7 @@
     <t>IVIVI</t>
   </si>
   <si>
-    <t>24 ч. 32 мин. 7 сек.</t>
+    <t>24 ч. 32 мин. 07 сек.</t>
   </si>
   <si>
     <t>821</t>
@@ -7496,7 +7496,7 @@
     <t>sa1k</t>
   </si>
   <si>
-    <t>24 ч. 8 мин. 48 сек.</t>
+    <t>24 ч. 08 мин. 48 сек.</t>
   </si>
   <si>
     <t>831</t>
@@ -7505,7 +7505,7 @@
     <t>VOLLUF</t>
   </si>
   <si>
-    <t>24 ч. 6 мин. 17 сек.</t>
+    <t>24 ч. 06 мин. 17 сек.</t>
   </si>
   <si>
     <t>832</t>
@@ -7514,7 +7514,7 @@
     <t>Yogi</t>
   </si>
   <si>
-    <t>24 ч. 5 мин. 44 сек.</t>
+    <t>24 ч. 05 мин. 44 сек.</t>
   </si>
   <si>
     <t>833</t>
@@ -7523,7 +7523,7 @@
     <t>ДядяСаша</t>
   </si>
   <si>
-    <t>24 ч. 4 мин. 41 сек.</t>
+    <t>24 ч. 04 мин. 41 сек.</t>
   </si>
   <si>
     <t>834</t>
@@ -7532,7 +7532,7 @@
     <t>nikitastech2010</t>
   </si>
   <si>
-    <t>24 ч. 4 мин. 14 сек.</t>
+    <t>24 ч. 04 мин. 14 сек.</t>
   </si>
   <si>
     <t>835</t>
@@ -7541,7 +7541,7 @@
     <t>Попугай_Кеша</t>
   </si>
   <si>
-    <t>24 ч. 2 мин. 18 сек.</t>
+    <t>24 ч. 02 мин. 18 сек.</t>
   </si>
   <si>
     <t>836</t>
@@ -7550,7 +7550,7 @@
     <t>Lien</t>
   </si>
   <si>
-    <t>24 ч. 1 мин. 19 сек.</t>
+    <t>24 ч. 01 мин. 19 сек.</t>
   </si>
   <si>
     <t>837</t>
@@ -7559,7 +7559,7 @@
     <t>sakhsod112</t>
   </si>
   <si>
-    <t>23 ч. 59 мин. 7 сек.</t>
+    <t>23 ч. 59 мин. 07 сек.</t>
   </si>
   <si>
     <t>838</t>
@@ -7577,7 +7577,7 @@
     <t>PurpleFish</t>
   </si>
   <si>
-    <t>23 ч. 58 мин. 7 сек.</t>
+    <t>23 ч. 58 мин. 07 сек.</t>
   </si>
   <si>
     <t>840</t>
@@ -7595,7 +7595,7 @@
     <t>Емерал</t>
   </si>
   <si>
-    <t>23 ч. 53 мин. 7 сек.</t>
+    <t>23 ч. 53 мин. 07 сек.</t>
   </si>
   <si>
     <t>842</t>
@@ -7676,7 +7676,7 @@
     <t>kasiveyser</t>
   </si>
   <si>
-    <t>23 ч. 38 мин. 4 сек.</t>
+    <t>23 ч. 38 мин. 04 сек.</t>
   </si>
   <si>
     <t>851</t>
@@ -7694,7 +7694,7 @@
     <t>corey_haim</t>
   </si>
   <si>
-    <t>23 ч. 37 мин. 7 сек.</t>
+    <t>23 ч. 37 мин. 07 сек.</t>
   </si>
   <si>
     <t>853</t>
@@ -7703,7 +7703,7 @@
     <t>Kagaa</t>
   </si>
   <si>
-    <t>23 ч. 35 мин. 8 сек.</t>
+    <t>23 ч. 35 мин. 08 сек.</t>
   </si>
   <si>
     <t>854</t>
@@ -7766,7 +7766,7 @@
     <t>raschoska</t>
   </si>
   <si>
-    <t>23 ч. 26 мин. 7 сек.</t>
+    <t>23 ч. 26 мин. 07 сек.</t>
   </si>
   <si>
     <t>861</t>
@@ -7829,7 +7829,7 @@
     <t>IvicaEkimovsky</t>
   </si>
   <si>
-    <t>23 ч. 18 мин. 4 сек.</t>
+    <t>23 ч. 18 мин. 04 сек.</t>
   </si>
   <si>
     <t>868</t>
@@ -7838,7 +7838,7 @@
     <t>Gistereziz</t>
   </si>
   <si>
-    <t>23 ч. 17 мин. 5 сек.</t>
+    <t>23 ч. 17 мин. 05 сек.</t>
   </si>
   <si>
     <t>869</t>
@@ -7874,7 +7874,7 @@
     <t>NLA</t>
   </si>
   <si>
-    <t>23 ч. 9 мин. 5 сек.</t>
+    <t>23 ч. 09 мин. 05 сек.</t>
   </si>
   <si>
     <t>873</t>
@@ -7883,7 +7883,7 @@
     <t>ZompSnail</t>
   </si>
   <si>
-    <t>23 ч. 8 мин. 44 сек.</t>
+    <t>23 ч. 08 мин. 44 сек.</t>
   </si>
   <si>
     <t>874</t>
@@ -7892,7 +7892,7 @@
     <t>gurke</t>
   </si>
   <si>
-    <t>23 ч. 8 мин. 35 сек.</t>
+    <t>23 ч. 08 мин. 35 сек.</t>
   </si>
   <si>
     <t>875</t>
@@ -7901,7 +7901,7 @@
     <t>ifer</t>
   </si>
   <si>
-    <t>23 ч. 8 мин. 13 сек.</t>
+    <t>23 ч. 08 мин. 13 сек.</t>
   </si>
   <si>
     <t>876</t>
@@ -7910,7 +7910,7 @@
     <t>Dzihiko</t>
   </si>
   <si>
-    <t>23 ч. 8 мин. 10 сек.</t>
+    <t>23 ч. 08 мин. 10 сек.</t>
   </si>
   <si>
     <t>877</t>
@@ -7919,7 +7919,7 @@
     <t>sorrovv</t>
   </si>
   <si>
-    <t>23 ч. 6 мин. 33 сек.</t>
+    <t>23 ч. 06 мин. 33 сек.</t>
   </si>
   <si>
     <t>878</t>
@@ -7928,7 +7928,7 @@
     <t>ПоганаяМолодежь</t>
   </si>
   <si>
-    <t>23 ч. 1 мин. 21 сек.</t>
+    <t>23 ч. 01 мин. 21 сек.</t>
   </si>
   <si>
     <t>879</t>
@@ -8000,7 +8000,7 @@
     <t>_Jack_</t>
   </si>
   <si>
-    <t>22 ч. 47 мин. 8 сек.</t>
+    <t>22 ч. 47 мин. 08 сек.</t>
   </si>
   <si>
     <t>887</t>
@@ -8027,7 +8027,7 @@
     <t>bitjr</t>
   </si>
   <si>
-    <t>22 ч. 39 мин. 6 сек.</t>
+    <t>22 ч. 39 мин. 06 сек.</t>
   </si>
   <si>
     <t>890</t>
@@ -8063,7 +8063,7 @@
     <t>ArtemChic</t>
   </si>
   <si>
-    <t>22 ч. 33 мин. 9 сек.</t>
+    <t>22 ч. 33 мин. 09 сек.</t>
   </si>
   <si>
     <t>894</t>
@@ -8162,7 +8162,7 @@
     <t>Страшила</t>
   </si>
   <si>
-    <t>22 ч. 19 мин. 4 сек.</t>
+    <t>22 ч. 19 мин. 04 сек.</t>
   </si>
   <si>
     <t>905</t>
@@ -8198,7 +8198,7 @@
     <t>inmpower</t>
   </si>
   <si>
-    <t>22 ч. 15 мин. 2 сек.</t>
+    <t>22 ч. 15 мин. 02 сек.</t>
   </si>
   <si>
     <t>909</t>
@@ -8225,7 +8225,7 @@
     <t>IvanovM</t>
   </si>
   <si>
-    <t>22 ч. 13 мин. 5 сек.</t>
+    <t>22 ч. 13 мин. 05 сек.</t>
   </si>
   <si>
     <t>912</t>
@@ -8243,7 +8243,7 @@
     <t>Yulick</t>
   </si>
   <si>
-    <t>22 ч. 9 мин. 36 сек.</t>
+    <t>22 ч. 09 мин. 36 сек.</t>
   </si>
   <si>
     <t>914</t>
@@ -8252,7 +8252,7 @@
     <t>Deka_</t>
   </si>
   <si>
-    <t>22 ч. 8 мин. 49 сек.</t>
+    <t>22 ч. 08 мин. 49 сек.</t>
   </si>
   <si>
     <t>915</t>
@@ -8261,7 +8261,7 @@
     <t>безтормозов</t>
   </si>
   <si>
-    <t>22 ч. 8 мин. 33 сек.</t>
+    <t>22 ч. 08 мин. 33 сек.</t>
   </si>
   <si>
     <t>916</t>
@@ -8270,7 +8270,7 @@
     <t>АСкворешня-Мчит</t>
   </si>
   <si>
-    <t>22 ч. 8 мин. 23 сек.</t>
+    <t>22 ч. 08 мин. 23 сек.</t>
   </si>
   <si>
     <t>917</t>
@@ -8279,7 +8279,7 @@
     <t>Exolon</t>
   </si>
   <si>
-    <t>22 ч. 8 мин. 11 сек.</t>
+    <t>22 ч. 08 мин. 11 сек.</t>
   </si>
   <si>
     <t>918</t>
@@ -8288,7 +8288,7 @@
     <t>BlackPantera</t>
   </si>
   <si>
-    <t>22 ч. 6 мин. 55 сек.</t>
+    <t>22 ч. 06 мин. 55 сек.</t>
   </si>
   <si>
     <t>919</t>
@@ -8297,7 +8297,7 @@
     <t>DimaRoot</t>
   </si>
   <si>
-    <t>22 ч. 3 мин. 49 сек.</t>
+    <t>22 ч. 03 мин. 49 сек.</t>
   </si>
   <si>
     <t>920</t>
@@ -8306,7 +8306,7 @@
     <t>Корн</t>
   </si>
   <si>
-    <t>22 ч. 2 мин. 29 сек.</t>
+    <t>22 ч. 02 мин. 29 сек.</t>
   </si>
   <si>
     <t>921</t>
@@ -8315,7 +8315,7 @@
     <t>WildMan-23</t>
   </si>
   <si>
-    <t>22 ч. 2 мин. 17 сек.</t>
+    <t>22 ч. 02 мин. 17 сек.</t>
   </si>
   <si>
     <t>922</t>
@@ -8324,7 +8324,7 @@
     <t>гопота</t>
   </si>
   <si>
-    <t>22 ч. 1 мин. 34 сек.</t>
+    <t>22 ч. 01 мин. 34 сек.</t>
   </si>
   <si>
     <t>923</t>
@@ -8333,7 +8333,7 @@
     <t>Jiona</t>
   </si>
   <si>
-    <t>22 ч. 1 мин. 10 сек.</t>
+    <t>22 ч. 01 мин. 10 сек.</t>
   </si>
   <si>
     <t>924</t>
@@ -8351,7 +8351,7 @@
     <t>FLb</t>
   </si>
   <si>
-    <t>21 ч. 54 мин. 6 сек.</t>
+    <t>21 ч. 54 мин. 06 сек.</t>
   </si>
   <si>
     <t>926</t>
@@ -8468,7 +8468,7 @@
     <t>Тоха</t>
   </si>
   <si>
-    <t>21 ч. 29 мин. 9 сек.</t>
+    <t>21 ч. 29 мин. 09 сек.</t>
   </si>
   <si>
     <t>939</t>
@@ -8570,7 +8570,7 @@
     <t>саша</t>
   </si>
   <si>
-    <t>21 ч. 9 мин. 11 сек.</t>
+    <t>21 ч. 09 мин. 11 сек.</t>
   </si>
   <si>
     <t>951</t>
@@ -8579,7 +8579,7 @@
     <t>sbook</t>
   </si>
   <si>
-    <t>21 ч. 7 мин. 18 сек.</t>
+    <t>21 ч. 07 мин. 18 сек.</t>
   </si>
   <si>
     <t>952</t>
@@ -8588,7 +8588,7 @@
     <t>newsuslik</t>
   </si>
   <si>
-    <t>21 ч. 3 мин. 43 сек.</t>
+    <t>21 ч. 03 мин. 43 сек.</t>
   </si>
   <si>
     <t>953</t>
@@ -8597,7 +8597,7 @@
     <t>yogurtishe</t>
   </si>
   <si>
-    <t>21 ч. 3 мин. 4 сек.</t>
+    <t>21 ч. 03 мин. 04 сек.</t>
   </si>
   <si>
     <t>954</t>
@@ -8606,7 +8606,7 @@
     <t>SGP63</t>
   </si>
   <si>
-    <t>21 ч. 2 мин. 49 сек.</t>
+    <t>21 ч. 02 мин. 49 сек.</t>
   </si>
   <si>
     <t>955</t>
@@ -8756,7 +8756,7 @@
     <t>Vohel</t>
   </si>
   <si>
-    <t>20 ч. 37 мин. 6 сек.</t>
+    <t>20 ч. 37 мин. 06 сек.</t>
   </si>
   <si>
     <t>972</t>
@@ -8783,7 +8783,7 @@
     <t>Воланд</t>
   </si>
   <si>
-    <t>20 ч. 33 мин. 5 сек.</t>
+    <t>20 ч. 33 мин. 05 сек.</t>
   </si>
   <si>
     <t>975</t>
@@ -8846,7 +8846,7 @@
     <t>atikin88</t>
   </si>
   <si>
-    <t>20 ч. 28 мин. 6 сек.</t>
+    <t>20 ч. 28 мин. 06 сек.</t>
   </si>
   <si>
     <t>982</t>
@@ -8864,7 +8864,7 @@
     <t>FFwertu</t>
   </si>
   <si>
-    <t>20 ч. 23 мин. 4 сек.</t>
+    <t>20 ч. 23 мин. 04 сек.</t>
   </si>
   <si>
     <t>984</t>
@@ -8954,7 +8954,7 @@
     <t>Клавоген</t>
   </si>
   <si>
-    <t>20 ч. 9 мин. 18 сек.</t>
+    <t>20 ч. 09 мин. 18 сек.</t>
   </si>
   <si>
     <t>994</t>
@@ -8963,7 +8963,7 @@
     <t>Genek</t>
   </si>
   <si>
-    <t>20 ч. 9 мин. 16 сек.</t>
+    <t>20 ч. 09 мин. 16 сек.</t>
   </si>
   <si>
     <t>995</t>
@@ -8972,7 +8972,7 @@
     <t>Grarad</t>
   </si>
   <si>
-    <t>20 ч. 8 мин. 9 сек.</t>
+    <t>20 ч. 08 мин. 09 сек.</t>
   </si>
   <si>
     <t>996</t>
@@ -8981,7 +8981,7 @@
     <t>Альбатрос</t>
   </si>
   <si>
-    <t>20 ч. 6 мин. 35 сек.</t>
+    <t>20 ч. 06 мин. 35 сек.</t>
   </si>
   <si>
     <t>997</t>
@@ -8990,7 +8990,7 @@
     <t>gogolocman</t>
   </si>
   <si>
-    <t>20 ч. 3 мин. 49 сек.</t>
+    <t>20 ч. 03 мин. 49 сек.</t>
   </si>
   <si>
     <t>998</t>
@@ -9044,7 +9044,7 @@
     <t>rseniy3</t>
   </si>
   <si>
-    <t>19 ч. 54 мин. 8 сек.</t>
+    <t>19 ч. 54 мин. 08 сек.</t>
   </si>
   <si>
     <t>1004</t>
@@ -9098,7 +9098,7 @@
     <t>lucky-man</t>
   </si>
   <si>
-    <t>19 ч. 46 мин. 1 сек.</t>
+    <t>19 ч. 46 мин. 01 сек.</t>
   </si>
   <si>
     <t>1010</t>
@@ -9107,7 +9107,7 @@
     <t>Kalenvall</t>
   </si>
   <si>
-    <t>19 ч. 44 мин. 6 сек.</t>
+    <t>19 ч. 44 мин. 06 сек.</t>
   </si>
   <si>
     <t>1011</t>
@@ -9161,7 +9161,7 @@
     <t>r0undabout</t>
   </si>
   <si>
-    <t>19 ч. 37 мин. 9 сек.</t>
+    <t>19 ч. 37 мин. 09 сек.</t>
   </si>
   <si>
     <t>1017</t>
@@ -9206,7 +9206,7 @@
     <t>Hleb_1989</t>
   </si>
   <si>
-    <t>19 ч. 29 мин. 8 сек.</t>
+    <t>19 ч. 29 мин. 08 сек.</t>
   </si>
   <si>
     <t>1022</t>
@@ -9305,7 +9305,7 @@
     <t>spacem0nkey</t>
   </si>
   <si>
-    <t>19 ч. 8 мин. 40 сек.</t>
+    <t>19 ч. 08 мин. 40 сек.</t>
   </si>
   <si>
     <t>1033</t>
@@ -9314,7 +9314,7 @@
     <t>Bolot</t>
   </si>
   <si>
-    <t>19 ч. 7 мин. 40 сек.</t>
+    <t>19 ч. 07 мин. 40 сек.</t>
   </si>
   <si>
     <t>1034</t>
@@ -9323,7 +9323,7 @@
     <t>Sunbeam</t>
   </si>
   <si>
-    <t>19 ч. 5 мин. 56 сек.</t>
+    <t>19 ч. 05 мин. 56 сек.</t>
   </si>
   <si>
     <t>1035</t>
@@ -9332,7 +9332,7 @@
     <t>Pale_Rider</t>
   </si>
   <si>
-    <t>19 ч. 5 мин. 1 сек.</t>
+    <t>19 ч. 05 мин. 01 сек.</t>
   </si>
   <si>
     <t>1036</t>
@@ -9341,7 +9341,7 @@
     <t>Дмитрий-Сол</t>
   </si>
   <si>
-    <t>19 ч. 4 мин. 7 сек.</t>
+    <t>19 ч. 04 мин. 07 сек.</t>
   </si>
   <si>
     <t>1037</t>
@@ -9350,7 +9350,7 @@
     <t>wipexe</t>
   </si>
   <si>
-    <t>19 ч. 3 мин. 44 сек.</t>
+    <t>19 ч. 03 мин. 44 сек.</t>
   </si>
   <si>
     <t>1038</t>
@@ -9359,7 +9359,7 @@
     <t>Roodyaman</t>
   </si>
   <si>
-    <t>19 ч. 3 мин. 29 сек.</t>
+    <t>19 ч. 03 мин. 29 сек.</t>
   </si>
   <si>
     <t>1039</t>
@@ -9368,7 +9368,7 @@
     <t>kia1020</t>
   </si>
   <si>
-    <t>19 ч. 3 мин. 14 сек.</t>
+    <t>19 ч. 03 мин. 14 сек.</t>
   </si>
   <si>
     <t>1040</t>
@@ -9377,7 +9377,7 @@
     <t>franka</t>
   </si>
   <si>
-    <t>19 ч. 2 мин. 45 сек.</t>
+    <t>19 ч. 02 мин. 45 сек.</t>
   </si>
   <si>
     <t>1041</t>
@@ -9440,7 +9440,7 @@
     <t>Paragogg</t>
   </si>
   <si>
-    <t>18 ч. 56 мин. 0 сек.</t>
+    <t>18 ч. 56 мин. 00 сек.</t>
   </si>
   <si>
     <t>1048</t>
@@ -9485,7 +9485,7 @@
     <t>ORV88</t>
   </si>
   <si>
-    <t>18 ч. 43 мин. 1 сек.</t>
+    <t>18 ч. 43 мин. 01 сек.</t>
   </si>
   <si>
     <t>1053</t>
@@ -9521,7 +9521,7 @@
     <t>R-o-m-i-k</t>
   </si>
   <si>
-    <t>18 ч. 38 мин. 1 сек.</t>
+    <t>18 ч. 38 мин. 01 сек.</t>
   </si>
   <si>
     <t>1057</t>
@@ -9530,7 +9530,7 @@
     <t>MOYSHA</t>
   </si>
   <si>
-    <t>18 ч. 37 мин. 9 сек.</t>
+    <t>18 ч. 37 мин. 09 сек.</t>
   </si>
   <si>
     <t>1058</t>
@@ -9548,7 +9548,7 @@
     <t>LexusAmd</t>
   </si>
   <si>
-    <t>18 ч. 34 мин. 8 сек.</t>
+    <t>18 ч. 34 мин. 08 сек.</t>
   </si>
   <si>
     <t>1060</t>
@@ -9602,7 +9602,7 @@
     <t>archi77</t>
   </si>
   <si>
-    <t>18 ч. 32 мин. 3 сек.</t>
+    <t>18 ч. 32 мин. 03 сек.</t>
   </si>
   <si>
     <t>1066</t>
@@ -9647,7 +9647,7 @@
     <t>WERT7</t>
   </si>
   <si>
-    <t>18 ч. 24 мин. 8 сек.</t>
+    <t>18 ч. 24 мин. 08 сек.</t>
   </si>
   <si>
     <t>1071</t>
@@ -9656,7 +9656,7 @@
     <t>Escamillo</t>
   </si>
   <si>
-    <t>18 ч. 24 мин. 4 сек.</t>
+    <t>18 ч. 24 мин. 04 сек.</t>
   </si>
   <si>
     <t>1072</t>
@@ -9674,7 +9674,7 @@
     <t>наждак</t>
   </si>
   <si>
-    <t>18 ч. 23 мин. 7 сек.</t>
+    <t>18 ч. 23 мин. 07 сек.</t>
   </si>
   <si>
     <t>katrin27sivkova</t>
@@ -9686,7 +9686,7 @@
     <t>Рон</t>
   </si>
   <si>
-    <t>18 ч. 23 мин. 6 сек.</t>
+    <t>18 ч. 23 мин. 06 сек.</t>
   </si>
   <si>
     <t>1076</t>
@@ -9731,7 +9731,7 @@
     <t>L_E_O</t>
   </si>
   <si>
-    <t>18 ч. 14 мин. 9 сек.</t>
+    <t>18 ч. 14 мин. 09 сек.</t>
   </si>
   <si>
     <t>1081</t>
@@ -9767,7 +9767,7 @@
     <t>Sonick071</t>
   </si>
   <si>
-    <t>18 ч. 9 мин. 23 сек.</t>
+    <t>18 ч. 09 мин. 23 сек.</t>
   </si>
   <si>
     <t>1085</t>
@@ -9776,7 +9776,7 @@
     <t>plop</t>
   </si>
   <si>
-    <t>18 ч. 8 мин. 35 сек.</t>
+    <t>18 ч. 08 мин. 35 сек.</t>
   </si>
   <si>
     <t>1086</t>
@@ -9785,7 +9785,7 @@
     <t>vvvv5</t>
   </si>
   <si>
-    <t>18 ч. 8 мин. 2 сек.</t>
+    <t>18 ч. 08 мин. 02 сек.</t>
   </si>
   <si>
     <t>1087</t>
@@ -9794,7 +9794,7 @@
     <t>zdanhik</t>
   </si>
   <si>
-    <t>18 ч. 7 мин. 32 сек.</t>
+    <t>18 ч. 07 мин. 32 сек.</t>
   </si>
   <si>
     <t>1088</t>
@@ -9803,7 +9803,7 @@
     <t>vl7</t>
   </si>
   <si>
-    <t>18 ч. 6 мин. 52 сек.</t>
+    <t>18 ч. 06 мин. 52 сек.</t>
   </si>
   <si>
     <t>1089</t>
@@ -9812,7 +9812,7 @@
     <t>-kuza-</t>
   </si>
   <si>
-    <t>18 ч. 5 мин. 22 сек.</t>
+    <t>18 ч. 05 мин. 22 сек.</t>
   </si>
   <si>
     <t>1090</t>
@@ -9821,7 +9821,7 @@
     <t>fly22</t>
   </si>
   <si>
-    <t>18 ч. 4 мин. 28 сек.</t>
+    <t>18 ч. 04 мин. 28 сек.</t>
   </si>
   <si>
     <t>1091</t>
@@ -9830,7 +9830,7 @@
     <t>Nsx</t>
   </si>
   <si>
-    <t>18 ч. 3 мин. 51 сек.</t>
+    <t>18 ч. 03 мин. 51 сек.</t>
   </si>
   <si>
     <t>1092</t>
@@ -9839,7 +9839,7 @@
     <t>paintedhat</t>
   </si>
   <si>
-    <t>18 ч. 3 мин. 27 сек.</t>
+    <t>18 ч. 03 мин. 27 сек.</t>
   </si>
   <si>
     <t>1093</t>
@@ -9848,7 +9848,7 @@
     <t>Pyccku</t>
   </si>
   <si>
-    <t>18 ч. 2 мин. 34 сек.</t>
+    <t>18 ч. 02 мин. 34 сек.</t>
   </si>
   <si>
     <t>1094</t>
@@ -9857,7 +9857,7 @@
     <t>Сашаааааа</t>
   </si>
   <si>
-    <t>18 ч. 0 мин. 4 сек.</t>
+    <t>18 ч. 00 мин. 04 сек.</t>
   </si>
   <si>
     <t>1095</t>
@@ -9884,7 +9884,7 @@
     <t>ТРЕКК</t>
   </si>
   <si>
-    <t>17 ч. 59 мин. 6 сек.</t>
+    <t>17 ч. 59 мин. 06 сек.</t>
   </si>
   <si>
     <t>1098</t>
@@ -9911,7 +9911,7 @@
     <t>мао</t>
   </si>
   <si>
-    <t>17 ч. 58 мин. 4 сек.</t>
+    <t>17 ч. 58 мин. 04 сек.</t>
   </si>
   <si>
     <t>1101</t>
@@ -9992,7 +9992,7 @@
     <t>Speedometer</t>
   </si>
   <si>
-    <t>17 ч. 48 мин. 9 сек.</t>
+    <t>17 ч. 48 мин. 09 сек.</t>
   </si>
   <si>
     <t>1110</t>
@@ -10019,7 +10019,7 @@
     <t>nastik</t>
   </si>
   <si>
-    <t>17 ч. 47 мин. 7 сек.</t>
+    <t>17 ч. 47 мин. 07 сек.</t>
   </si>
   <si>
     <t>1113</t>
@@ -10136,7 +10136,7 @@
     <t>AGATUKUS</t>
   </si>
   <si>
-    <t>17 ч. 36 мин. 8 сек.</t>
+    <t>17 ч. 36 мин. 08 сек.</t>
   </si>
   <si>
     <t>1126</t>
@@ -10154,7 +10154,7 @@
     <t>Sol0n</t>
   </si>
   <si>
-    <t>17 ч. 34 мин. 0 сек.</t>
+    <t>17 ч. 34 мин. 00 сек.</t>
   </si>
   <si>
     <t>1128</t>
@@ -10181,7 +10181,7 @@
     <t>Aleksius</t>
   </si>
   <si>
-    <t>17 ч. 32 мин. 6 сек.</t>
+    <t>17 ч. 32 мин. 06 сек.</t>
   </si>
   <si>
     <t>1131</t>
@@ -10199,7 +10199,7 @@
     <t>Matafix</t>
   </si>
   <si>
-    <t>17 ч. 29 мин. 5 сек.</t>
+    <t>17 ч. 29 мин. 05 сек.</t>
   </si>
   <si>
     <t>1133</t>
@@ -10208,7 +10208,7 @@
     <t>terlan</t>
   </si>
   <si>
-    <t>17 ч. 28 мин. 4 сек.</t>
+    <t>17 ч. 28 мин. 04 сек.</t>
   </si>
   <si>
     <t>1134</t>
@@ -10298,7 +10298,7 @@
     <t>ArtefactX</t>
   </si>
   <si>
-    <t>17 ч. 19 мин. 4 сек.</t>
+    <t>17 ч. 19 мин. 04 сек.</t>
   </si>
   <si>
     <t>1144</t>
@@ -10379,7 +10379,7 @@
     <t>Andrey853</t>
   </si>
   <si>
-    <t>17 ч. 9 мин. 24 сек.</t>
+    <t>17 ч. 09 мин. 24 сек.</t>
   </si>
   <si>
     <t>1153</t>
@@ -10388,7 +10388,7 @@
     <t>Fudochi</t>
   </si>
   <si>
-    <t>17 ч. 9 мин. 8 сек.</t>
+    <t>17 ч. 09 мин. 08 сек.</t>
   </si>
   <si>
     <t>1154</t>
@@ -10397,7 +10397,7 @@
     <t>Zaz968m</t>
   </si>
   <si>
-    <t>17 ч. 8 мин. 56 сек.</t>
+    <t>17 ч. 08 мин. 56 сек.</t>
   </si>
   <si>
     <t>1155</t>
@@ -10406,7 +10406,7 @@
     <t>-WERT-</t>
   </si>
   <si>
-    <t>17 ч. 8 мин. 0 сек.</t>
+    <t>17 ч. 08 мин. 00 сек.</t>
   </si>
   <si>
     <t>1156</t>
@@ -10415,7 +10415,7 @@
     <t>melancholoid</t>
   </si>
   <si>
-    <t>17 ч. 4 мин. 43 сек.</t>
+    <t>17 ч. 04 мин. 43 сек.</t>
   </si>
   <si>
     <t>1157</t>
@@ -10424,7 +10424,7 @@
     <t>KAYFARYK</t>
   </si>
   <si>
-    <t>17 ч. 4 мин. 39 сек.</t>
+    <t>17 ч. 04 мин. 39 сек.</t>
   </si>
   <si>
     <t>1158</t>
@@ -10433,7 +10433,7 @@
     <t>SnowMen</t>
   </si>
   <si>
-    <t>17 ч. 3 мин. 30 сек.</t>
+    <t>17 ч. 03 мин. 30 сек.</t>
   </si>
   <si>
     <t>1159</t>
@@ -10442,7 +10442,7 @@
     <t>Pavl0</t>
   </si>
   <si>
-    <t>17 ч. 3 мин. 7 сек.</t>
+    <t>17 ч. 03 мин. 07 сек.</t>
   </si>
   <si>
     <t>1160</t>
@@ -10451,7 +10451,7 @@
     <t>Speed_King</t>
   </si>
   <si>
-    <t>17 ч. 3 мин. 4 сек.</t>
+    <t>17 ч. 03 мин. 04 сек.</t>
   </si>
   <si>
     <t>1161</t>
@@ -10460,7 +10460,7 @@
     <t>AlexeyAlexey7</t>
   </si>
   <si>
-    <t>17 ч. 2 мин. 42 сек.</t>
+    <t>17 ч. 02 мин. 42 сек.</t>
   </si>
   <si>
     <t>1162</t>
@@ -10469,7 +10469,7 @@
     <t>Байт</t>
   </si>
   <si>
-    <t>17 ч. 2 мин. 25 сек.</t>
+    <t>17 ч. 02 мин. 25 сек.</t>
   </si>
   <si>
     <t>1163</t>
@@ -10478,7 +10478,7 @@
     <t>Петька29</t>
   </si>
   <si>
-    <t>17 ч. 0 мин. 46 сек.</t>
+    <t>17 ч. 00 мин. 46 сек.</t>
   </si>
   <si>
     <t>1164</t>
@@ -10613,7 +10613,7 @@
     <t>ajka616</t>
   </si>
   <si>
-    <t>16 ч. 44 мин. 1 сек.</t>
+    <t>16 ч. 44 мин. 01 сек.</t>
   </si>
   <si>
     <t>1179</t>
@@ -10676,7 +10676,7 @@
     <t>Дед_Мазай</t>
   </si>
   <si>
-    <t>16 ч. 39 мин. 5 сек.</t>
+    <t>16 ч. 39 мин. 05 сек.</t>
   </si>
   <si>
     <t>1186</t>
@@ -10751,7 +10751,7 @@
     <t>Интересующийся</t>
   </si>
   <si>
-    <t>16 ч. 33 мин. 0 сек.</t>
+    <t>16 ч. 33 мин. 00 сек.</t>
   </si>
   <si>
     <t>1195</t>
@@ -10814,7 +10814,7 @@
     <t>-LVV-</t>
   </si>
   <si>
-    <t>16 ч. 29 мин. 1 сек.</t>
+    <t>16 ч. 29 мин. 01 сек.</t>
   </si>
   <si>
     <t>1202</t>
@@ -10841,7 +10841,7 @@
     <t>Jerichoni</t>
   </si>
   <si>
-    <t>16 ч. 28 мин. 4 сек.</t>
+    <t>16 ч. 28 мин. 04 сек.</t>
   </si>
   <si>
     <t>1205</t>
@@ -10904,7 +10904,7 @@
     <t>eksdak</t>
   </si>
   <si>
-    <t>16 ч. 24 мин. 8 сек.</t>
+    <t>16 ч. 24 мин. 08 сек.</t>
   </si>
   <si>
     <t>1212</t>
@@ -10922,7 +10922,7 @@
     <t>homo-novus</t>
   </si>
   <si>
-    <t>16 ч. 23 мин. 3 сек.</t>
+    <t>16 ч. 23 мин. 03 сек.</t>
   </si>
   <si>
     <t>1214</t>
@@ -11003,7 +11003,7 @@
     <t>алесик</t>
   </si>
   <si>
-    <t>16 ч. 18 мин. 5 сек.</t>
+    <t>16 ч. 18 мин. 05 сек.</t>
   </si>
   <si>
     <t>1223</t>
@@ -11066,7 +11066,7 @@
     <t>Aksinja</t>
   </si>
   <si>
-    <t>16 ч. 13 мин. 7 сек.</t>
+    <t>16 ч. 13 мин. 07 сек.</t>
   </si>
   <si>
     <t>1230</t>
@@ -11075,7 +11075,7 @@
     <t>narciss0</t>
   </si>
   <si>
-    <t>16 ч. 13 мин. 3 сек.</t>
+    <t>16 ч. 13 мин. 03 сек.</t>
   </si>
   <si>
     <t>1231</t>
@@ -11093,7 +11093,7 @@
     <t>Нельсон1104</t>
   </si>
   <si>
-    <t>16 ч. 9 мин. 13 сек.</t>
+    <t>16 ч. 09 мин. 13 сек.</t>
   </si>
   <si>
     <t>1233</t>
@@ -11102,7 +11102,7 @@
     <t>Silverneo</t>
   </si>
   <si>
-    <t>16 ч. 9 мин. 2 сек.</t>
+    <t>16 ч. 09 мин. 02 сек.</t>
   </si>
   <si>
     <t>1234</t>
@@ -11111,7 +11111,7 @@
     <t>омаевамо</t>
   </si>
   <si>
-    <t>16 ч. 8 мин. 56 сек.</t>
+    <t>16 ч. 08 мин. 56 сек.</t>
   </si>
   <si>
     <t>1235</t>
@@ -11120,7 +11120,7 @@
     <t>evgen65</t>
   </si>
   <si>
-    <t>16 ч. 8 мин. 41 сек.</t>
+    <t>16 ч. 08 мин. 41 сек.</t>
   </si>
   <si>
     <t>1236</t>
@@ -11129,7 +11129,7 @@
     <t>ElenaF</t>
   </si>
   <si>
-    <t>16 ч. 8 мин. 40 сек.</t>
+    <t>16 ч. 08 мин. 40 сек.</t>
   </si>
   <si>
     <t>1237</t>
@@ -11138,7 +11138,7 @@
     <t>ourplay</t>
   </si>
   <si>
-    <t>16 ч. 8 мин. 8 сек.</t>
+    <t>16 ч. 08 мин. 08 сек.</t>
   </si>
   <si>
     <t>1238</t>
@@ -11147,7 +11147,7 @@
     <t>KitsuneSpirit</t>
   </si>
   <si>
-    <t>16 ч. 4 мин. 45 сек.</t>
+    <t>16 ч. 04 мин. 45 сек.</t>
   </si>
   <si>
     <t>1239</t>
@@ -11156,7 +11156,7 @@
     <t>ksneo</t>
   </si>
   <si>
-    <t>16 ч. 2 мин. 59 сек.</t>
+    <t>16 ч. 02 мин. 59 сек.</t>
   </si>
   <si>
     <t>1240</t>
@@ -11165,7 +11165,7 @@
     <t>-HuKa-</t>
   </si>
   <si>
-    <t>16 ч. 2 мин. 54 сек.</t>
+    <t>16 ч. 02 мин. 54 сек.</t>
   </si>
   <si>
     <t>1241</t>
@@ -11174,7 +11174,7 @@
     <t>Импульс</t>
   </si>
   <si>
-    <t>16 ч. 2 мин. 40 сек.</t>
+    <t>16 ч. 02 мин. 40 сек.</t>
   </si>
   <si>
     <t>1242</t>
@@ -11183,7 +11183,7 @@
     <t>ЦАРЬ</t>
   </si>
   <si>
-    <t>16 ч. 1 мин. 57 сек.</t>
+    <t>16 ч. 01 мин. 57 сек.</t>
   </si>
   <si>
     <t>1243</t>
@@ -11300,7 +11300,7 @@
     <t>Герман2882</t>
   </si>
   <si>
-    <t>15 ч. 49 мин. 8 сек.</t>
+    <t>15 ч. 49 мин. 08 сек.</t>
   </si>
   <si>
     <t>1256</t>
@@ -11336,7 +11336,7 @@
     <t>August</t>
   </si>
   <si>
-    <t>15 ч. 48 мин. 5 сек.</t>
+    <t>15 ч. 48 мин. 05 сек.</t>
   </si>
   <si>
     <t>1260</t>
@@ -11372,7 +11372,7 @@
     <t>Viktor117</t>
   </si>
   <si>
-    <t>15 ч. 44 мин. 6 сек.</t>
+    <t>15 ч. 44 мин. 06 сек.</t>
   </si>
   <si>
     <t>1264</t>
@@ -11408,7 +11408,7 @@
     <t>casio384</t>
   </si>
   <si>
-    <t>15 ч. 43 мин. 3 сек.</t>
+    <t>15 ч. 43 мин. 03 сек.</t>
   </si>
   <si>
     <t>1268</t>
@@ -11480,7 +11480,7 @@
     <t>lucky-zaa</t>
   </si>
   <si>
-    <t>15 ч. 38 мин. 9 сек.</t>
+    <t>15 ч. 38 мин. 09 сек.</t>
   </si>
   <si>
     <t>1276</t>
@@ -11543,7 +11543,7 @@
     <t>локки</t>
   </si>
   <si>
-    <t>15 ч. 29 мин. 5 сек.</t>
+    <t>15 ч. 29 мин. 05 сек.</t>
   </si>
   <si>
     <t>1283</t>
@@ -11552,7 +11552,7 @@
     <t>yuzzu</t>
   </si>
   <si>
-    <t>15 ч. 29 мин. 0 сек.</t>
+    <t>15 ч. 29 мин. 00 сек.</t>
   </si>
   <si>
     <t>1284</t>
@@ -11786,7 +11786,7 @@
     <t>momantenok_vova</t>
   </si>
   <si>
-    <t>15 ч. 14 мин. 8 сек.</t>
+    <t>15 ч. 14 мин. 08 сек.</t>
   </si>
   <si>
     <t>saviorium</t>
@@ -11798,7 +11798,7 @@
     <t>Desertove</t>
   </si>
   <si>
-    <t>15 ч. 14 мин. 5 сек.</t>
+    <t>15 ч. 14 мин. 05 сек.</t>
   </si>
   <si>
     <t>1312</t>
@@ -11807,7 +11807,7 @@
     <t>Хеопс</t>
   </si>
   <si>
-    <t>15 ч. 14 мин. 3 сек.</t>
+    <t>15 ч. 14 мин. 03 сек.</t>
   </si>
   <si>
     <t>1313</t>
@@ -11861,7 +11861,7 @@
     <t>f0rtuna</t>
   </si>
   <si>
-    <t>15 ч. 9 мин. 22 сек.</t>
+    <t>15 ч. 09 мин. 22 сек.</t>
   </si>
   <si>
     <t>1319</t>
@@ -11870,7 +11870,7 @@
     <t>SoutoMajor</t>
   </si>
   <si>
-    <t>15 ч. 9 мин. 8 сек.</t>
+    <t>15 ч. 09 мин. 08 сек.</t>
   </si>
   <si>
     <t>1320</t>
@@ -11879,7 +11879,7 @@
     <t>Ващук</t>
   </si>
   <si>
-    <t>15 ч. 7 мин. 48 сек.</t>
+    <t>15 ч. 07 мин. 48 сек.</t>
   </si>
   <si>
     <t>1321</t>
@@ -11888,7 +11888,7 @@
     <t>Cairns</t>
   </si>
   <si>
-    <t>15 ч. 7 мин. 21 сек.</t>
+    <t>15 ч. 07 мин. 21 сек.</t>
   </si>
   <si>
     <t>1322</t>
@@ -11897,7 +11897,7 @@
     <t>Алька007</t>
   </si>
   <si>
-    <t>15 ч. 6 мин. 51 сек.</t>
+    <t>15 ч. 06 мин. 51 сек.</t>
   </si>
   <si>
     <t>1323</t>
@@ -11906,7 +11906,7 @@
     <t>Nicel</t>
   </si>
   <si>
-    <t>15 ч. 4 мин. 26 сек.</t>
+    <t>15 ч. 04 мин. 26 сек.</t>
   </si>
   <si>
     <t>1324</t>
@@ -11915,7 +11915,7 @@
     <t>Xupypr_y</t>
   </si>
   <si>
-    <t>15 ч. 4 мин. 5 сек.</t>
+    <t>15 ч. 04 мин. 05 сек.</t>
   </si>
   <si>
     <t>1325</t>
@@ -11924,7 +11924,7 @@
     <t>Vorval_0</t>
   </si>
   <si>
-    <t>15 ч. 3 мин. 57 сек.</t>
+    <t>15 ч. 03 мин. 57 сек.</t>
   </si>
   <si>
     <t>1326</t>
@@ -11933,7 +11933,7 @@
     <t>madinko</t>
   </si>
   <si>
-    <t>15 ч. 3 мин. 55 сек.</t>
+    <t>15 ч. 03 мин. 55 сек.</t>
   </si>
   <si>
     <t>1327</t>
@@ -11942,7 +11942,7 @@
     <t>Oknevor</t>
   </si>
   <si>
-    <t>15 ч. 3 мин. 54 сек.</t>
+    <t>15 ч. 03 мин. 54 сек.</t>
   </si>
   <si>
     <t>1328</t>
@@ -11951,7 +11951,7 @@
     <t>SupremeLearning</t>
   </si>
   <si>
-    <t>15 ч. 3 мин. 47 сек.</t>
+    <t>15 ч. 03 мин. 47 сек.</t>
   </si>
   <si>
     <t>1329</t>
@@ -11960,7 +11960,7 @@
     <t>ANYA111</t>
   </si>
   <si>
-    <t>15 ч. 3 мин. 24 сек.</t>
+    <t>15 ч. 03 мин. 24 сек.</t>
   </si>
   <si>
     <t>1330</t>
@@ -11969,7 +11969,7 @@
     <t>tihohod</t>
   </si>
   <si>
-    <t>15 ч. 3 мин. 15 сек.</t>
+    <t>15 ч. 03 мин. 15 сек.</t>
   </si>
   <si>
     <t>1331</t>
@@ -11978,7 +11978,7 @@
     <t>Alex1980</t>
   </si>
   <si>
-    <t>15 ч. 2 мин. 49 сек.</t>
+    <t>15 ч. 02 мин. 49 сек.</t>
   </si>
   <si>
     <t>1332</t>
@@ -12014,7 +12014,7 @@
     <t>Racnagore</t>
   </si>
   <si>
-    <t>14 ч. 59 мин. 6 сек.</t>
+    <t>14 ч. 59 мин. 06 сек.</t>
   </si>
   <si>
     <t>1336</t>
@@ -12122,7 +12122,7 @@
     <t>Соболев</t>
   </si>
   <si>
-    <t>14 ч. 54 мин. 2 сек.</t>
+    <t>14 ч. 54 мин. 02 сек.</t>
   </si>
   <si>
     <t>1348</t>
@@ -12149,7 +12149,7 @@
     <t>Варюха</t>
   </si>
   <si>
-    <t>14 ч. 53 мин. 9 сек.</t>
+    <t>14 ч. 53 мин. 09 сек.</t>
   </si>
   <si>
     <t>1351</t>
@@ -12338,7 +12338,7 @@
     <t>Catsvill</t>
   </si>
   <si>
-    <t>14 ч. 33 мин. 4 сек.</t>
+    <t>14 ч. 33 мин. 04 сек.</t>
   </si>
   <si>
     <t>1372</t>
@@ -12365,7 +12365,7 @@
     <t>Demien89</t>
   </si>
   <si>
-    <t>14 ч. 26 мин. 6 сек.</t>
+    <t>14 ч. 26 мин. 06 сек.</t>
   </si>
   <si>
     <t>1375</t>
@@ -12410,7 +12410,7 @@
     <t>Corleone99</t>
   </si>
   <si>
-    <t>14 ч. 23 мин. 0 сек.</t>
+    <t>14 ч. 23 мин. 00 сек.</t>
   </si>
   <si>
     <t>1380</t>
@@ -12455,7 +12455,7 @@
     <t>citello</t>
   </si>
   <si>
-    <t>14 ч. 19 мин. 6 сек.</t>
+    <t>14 ч. 19 мин. 06 сек.</t>
   </si>
   <si>
     <t>1385</t>
@@ -12464,7 +12464,7 @@
     <t>Alber</t>
   </si>
   <si>
-    <t>14 ч. 19 мин. 5 сек.</t>
+    <t>14 ч. 19 мин. 05 сек.</t>
   </si>
   <si>
     <t>1386</t>
@@ -12530,7 +12530,7 @@
     <t>Oblaudr</t>
   </si>
   <si>
-    <t>14 ч. 14 мин. 6 сек.</t>
+    <t>14 ч. 14 мин. 06 сек.</t>
   </si>
   <si>
     <t>1394</t>
@@ -12602,7 +12602,7 @@
     <t>Какиш</t>
   </si>
   <si>
-    <t>14 ч. 13 мин. 9 сек.</t>
+    <t>14 ч. 13 мин. 09 сек.</t>
   </si>
   <si>
     <t>1402</t>
@@ -12620,7 +12620,7 @@
     <t>Wissen</t>
   </si>
   <si>
-    <t>14 ч. 10 мин. 7 сек.</t>
+    <t>14 ч. 10 мин. 07 сек.</t>
   </si>
   <si>
     <t>1404</t>
@@ -12629,7 +12629,7 @@
     <t>alertin</t>
   </si>
   <si>
-    <t>14 ч. 9 мин. 21 сек.</t>
+    <t>14 ч. 09 мин. 21 сек.</t>
   </si>
   <si>
     <t>1405</t>
@@ -12638,7 +12638,7 @@
     <t>nitop</t>
   </si>
   <si>
-    <t>14 ч. 9 мин. 7 сек.</t>
+    <t>14 ч. 09 мин. 07 сек.</t>
   </si>
   <si>
     <t>1406–1407</t>
@@ -12647,7 +12647,7 @@
     <t>Gbit</t>
   </si>
   <si>
-    <t>14 ч. 8 мин. 2 сек.</t>
+    <t>14 ч. 08 мин. 02 сек.</t>
   </si>
   <si>
     <t>FerStY</t>
@@ -12659,7 +12659,7 @@
     <t>EvrikaCharodika</t>
   </si>
   <si>
-    <t>14 ч. 7 мин. 37 сек.</t>
+    <t>14 ч. 07 мин. 37 сек.</t>
   </si>
   <si>
     <t>1409</t>
@@ -12668,7 +12668,7 @@
     <t>Tasko</t>
   </si>
   <si>
-    <t>14 ч. 4 мин. 40 сек.</t>
+    <t>14 ч. 04 мин. 40 сек.</t>
   </si>
   <si>
     <t>1410</t>
@@ -12677,7 +12677,7 @@
     <t>Rockett</t>
   </si>
   <si>
-    <t>14 ч. 3 мин. 56 сек.</t>
+    <t>14 ч. 03 мин. 56 сек.</t>
   </si>
   <si>
     <t>1411</t>
@@ -12686,7 +12686,7 @@
     <t>9IMopkoBka</t>
   </si>
   <si>
-    <t>14 ч. 3 мин. 29 сек.</t>
+    <t>14 ч. 03 мин. 29 сек.</t>
   </si>
   <si>
     <t>1412</t>
@@ -12695,7 +12695,7 @@
     <t>Кусь-Кусь</t>
   </si>
   <si>
-    <t>14 ч. 3 мин. 21 сек.</t>
+    <t>14 ч. 03 мин. 21 сек.</t>
   </si>
   <si>
     <t>1413</t>
@@ -12704,7 +12704,7 @@
     <t>Marfuska</t>
   </si>
   <si>
-    <t>14 ч. 3 мин. 20 сек.</t>
+    <t>14 ч. 03 мин. 20 сек.</t>
   </si>
   <si>
     <t>1414</t>
@@ -12713,7 +12713,7 @@
     <t>Скат</t>
   </si>
   <si>
-    <t>14 ч. 2 мин. 19 сек.</t>
+    <t>14 ч. 02 мин. 19 сек.</t>
   </si>
   <si>
     <t>1415</t>
@@ -12842,7 +12842,7 @@
     <t>STM32</t>
   </si>
   <si>
-    <t>13 ч. 54 мин. 9 сек.</t>
+    <t>13 ч. 54 мин. 09 сек.</t>
   </si>
   <si>
     <t>1430</t>
@@ -12878,7 +12878,7 @@
     <t>Lol_</t>
   </si>
   <si>
-    <t>13 ч. 53 мин. 2 сек.</t>
+    <t>13 ч. 53 мин. 02 сек.</t>
   </si>
   <si>
     <t>1434</t>
@@ -12896,7 +12896,7 @@
     <t>Bombo</t>
   </si>
   <si>
-    <t>13 ч. 50 мин. 1 сек.</t>
+    <t>13 ч. 50 мин. 01 сек.</t>
   </si>
   <si>
     <t>1436</t>
@@ -13031,7 +13031,7 @@
     <t>batton</t>
   </si>
   <si>
-    <t>13 ч. 38 мин. 9 сек.</t>
+    <t>13 ч. 38 мин. 09 сек.</t>
   </si>
   <si>
     <t>1451</t>
@@ -13151,7 +13151,7 @@
     <t>maxon4ik</t>
   </si>
   <si>
-    <t>13 ч. 24 мин. 7 сек.</t>
+    <t>13 ч. 24 мин. 07 сек.</t>
   </si>
   <si>
     <t>1465</t>
@@ -13187,7 +13187,7 @@
     <t>Легионер</t>
   </si>
   <si>
-    <t>13 ч. 23 мин. 9 сек.</t>
+    <t>13 ч. 23 мин. 09 сек.</t>
   </si>
   <si>
     <t>Radchin</t>
@@ -13253,7 +13253,7 @@
     <t>jooga</t>
   </si>
   <si>
-    <t>13 ч. 19 мин. 8 сек.</t>
+    <t>13 ч. 19 мин. 08 сек.</t>
   </si>
   <si>
     <t>1477</t>
@@ -13307,7 +13307,7 @@
     <t>Denar</t>
   </si>
   <si>
-    <t>13 ч. 18 мин. 9 сек.</t>
+    <t>13 ч. 18 мин. 09 сек.</t>
   </si>
   <si>
     <t>1483</t>
@@ -13334,7 +13334,7 @@
     <t>chesbor</t>
   </si>
   <si>
-    <t>13 ч. 14 мин. 7 сек.</t>
+    <t>13 ч. 14 мин. 07 сек.</t>
   </si>
   <si>
     <t>1486</t>
@@ -13370,7 +13370,7 @@
     <t>Ankx</t>
   </si>
   <si>
-    <t>13 ч. 9 мин. 31 сек.</t>
+    <t>13 ч. 09 мин. 31 сек.</t>
   </si>
   <si>
     <t>1490</t>
@@ -13379,7 +13379,7 @@
     <t>g12ex</t>
   </si>
   <si>
-    <t>13 ч. 9 мин. 21 сек.</t>
+    <t>13 ч. 09 мин. 21 сек.</t>
   </si>
   <si>
     <t>1491</t>
@@ -13388,7 +13388,7 @@
     <t>Kenichi</t>
   </si>
   <si>
-    <t>13 ч. 8 мин. 56 сек.</t>
+    <t>13 ч. 08 мин. 56 сек.</t>
   </si>
   <si>
     <t>1492</t>
@@ -13397,7 +13397,7 @@
     <t>O_o-Fiery</t>
   </si>
   <si>
-    <t>13 ч. 8 мин. 40 сек.</t>
+    <t>13 ч. 08 мин. 40 сек.</t>
   </si>
   <si>
     <t>1493</t>
@@ -13406,7 +13406,7 @@
     <t>DaschaD</t>
   </si>
   <si>
-    <t>13 ч. 8 мин. 39 сек.</t>
+    <t>13 ч. 08 мин. 39 сек.</t>
   </si>
   <si>
     <t>1494</t>
@@ -13415,7 +13415,7 @@
     <t>Olgitsa</t>
   </si>
   <si>
-    <t>13 ч. 8 мин. 24 сек.</t>
+    <t>13 ч. 08 мин. 24 сек.</t>
   </si>
   <si>
     <t>1495</t>
@@ -13424,7 +13424,7 @@
     <t>VodViktor</t>
   </si>
   <si>
-    <t>13 ч. 8 мин. 16 сек.</t>
+    <t>13 ч. 08 мин. 16 сек.</t>
   </si>
   <si>
     <t>1496</t>
@@ -13433,7 +13433,7 @@
     <t>Wolcharryk</t>
   </si>
   <si>
-    <t>13 ч. 7 мин. 46 сек.</t>
+    <t>13 ч. 07 мин. 46 сек.</t>
   </si>
   <si>
     <t>1497</t>
@@ -13442,7 +13442,7 @@
     <t>Ivchik</t>
   </si>
   <si>
-    <t>13 ч. 5 мин. 48 сек.</t>
+    <t>13 ч. 05 мин. 48 сек.</t>
   </si>
   <si>
     <t>1498</t>
@@ -13451,7 +13451,7 @@
     <t>zimonin</t>
   </si>
   <si>
-    <t>13 ч. 4 мин. 57 сек.</t>
+    <t>13 ч. 04 мин. 57 сек.</t>
   </si>
   <si>
     <t>1499</t>
@@ -13460,7 +13460,7 @@
     <t>Banzai7</t>
   </si>
   <si>
-    <t>13 ч. 4 мин. 35 сек.</t>
+    <t>13 ч. 04 мин. 35 сек.</t>
   </si>
   <si>
     <t>1500–1501</t>
@@ -13469,7 +13469,7 @@
     <t>Readeer</t>
   </si>
   <si>
-    <t>13 ч. 4 мин. 20 сек.</t>
+    <t>13 ч. 04 мин. 20 сек.</t>
   </si>
   <si>
     <t>Altna</t>
@@ -13481,7 +13481,7 @@
     <t>Jamakasi</t>
   </si>
   <si>
-    <t>13 ч. 4 мин. 15 сек.</t>
+    <t>13 ч. 04 мин. 15 сек.</t>
   </si>
   <si>
     <t>1503</t>
@@ -13490,7 +13490,7 @@
     <t>Vampirenochek</t>
   </si>
   <si>
-    <t>13 ч. 4 мин. 9 сек.</t>
+    <t>13 ч. 04 мин. 09 сек.</t>
   </si>
   <si>
     <t>1504</t>
@@ -13499,7 +13499,7 @@
     <t>Кунанов</t>
   </si>
   <si>
-    <t>13 ч. 4 мин. 4 сек.</t>
+    <t>13 ч. 04 мин. 04 сек.</t>
   </si>
   <si>
     <t>1505</t>
@@ -13508,7 +13508,7 @@
     <t>Asuo</t>
   </si>
   <si>
-    <t>13 ч. 3 мин. 52 сек.</t>
+    <t>13 ч. 03 мин. 52 сек.</t>
   </si>
   <si>
     <t>1506</t>
@@ -13517,7 +13517,7 @@
     <t>Danica</t>
   </si>
   <si>
-    <t>13 ч. 3 мин. 47 сек.</t>
+    <t>13 ч. 03 мин. 47 сек.</t>
   </si>
   <si>
     <t>1507</t>
@@ -13526,7 +13526,7 @@
     <t>mcl</t>
   </si>
   <si>
-    <t>13 ч. 3 мин. 25 сек.</t>
+    <t>13 ч. 03 мин. 25 сек.</t>
   </si>
   <si>
     <t>1508</t>
@@ -13535,7 +13535,7 @@
     <t>Lujdmila</t>
   </si>
   <si>
-    <t>13 ч. 3 мин. 22 сек.</t>
+    <t>13 ч. 03 мин. 22 сек.</t>
   </si>
   <si>
     <t>1509–1510</t>
@@ -13544,7 +13544,7 @@
     <t>dertru</t>
   </si>
   <si>
-    <t>13 ч. 3 мин. 8 сек.</t>
+    <t>13 ч. 03 мин. 08 сек.</t>
   </si>
   <si>
     <t>iPitbull</t>
@@ -13556,7 +13556,7 @@
     <t>n0mroe</t>
   </si>
   <si>
-    <t>13 ч. 2 мин. 40 сек.</t>
+    <t>13 ч. 02 мин. 40 сек.</t>
   </si>
   <si>
     <t>1512</t>
@@ -13583,7 +13583,7 @@
     <t>HappinessHappen</t>
   </si>
   <si>
-    <t>12 ч. 59 мин. 7 сек.</t>
+    <t>12 ч. 59 мин. 07 сек.</t>
   </si>
   <si>
     <t>1515</t>
@@ -13592,7 +13592,7 @@
     <t>Жижикова</t>
   </si>
   <si>
-    <t>12 ч. 59 мин. 4 сек.</t>
+    <t>12 ч. 59 мин. 04 сек.</t>
   </si>
   <si>
     <t>1516</t>
@@ -13646,7 +13646,7 @@
     <t>StarRuler</t>
   </si>
   <si>
-    <t>12 ч. 54 мин. 4 сек.</t>
+    <t>12 ч. 54 мин. 04 сек.</t>
   </si>
   <si>
     <t>1522</t>
@@ -13703,7 +13703,7 @@
     <t>asteny2005</t>
   </si>
   <si>
-    <t>12 ч. 53 мин. 0 сек.</t>
+    <t>12 ч. 53 мин. 00 сек.</t>
   </si>
   <si>
     <t>1529</t>
@@ -13712,7 +13712,7 @@
     <t>ABSOLUUUT_</t>
   </si>
   <si>
-    <t>12 ч. 50 мин. 1 сек.</t>
+    <t>12 ч. 50 мин. 01 сек.</t>
   </si>
   <si>
     <t>1530</t>
@@ -13739,7 +13739,7 @@
     <t>6apcuk</t>
   </si>
   <si>
-    <t>12 ч. 48 мин. 3 сек.</t>
+    <t>12 ч. 48 мин. 03 сек.</t>
   </si>
   <si>
     <t>1533</t>
@@ -13766,7 +13766,7 @@
     <t>maksle</t>
   </si>
   <si>
-    <t>12 ч. 44 мин. 5 сек.</t>
+    <t>12 ч. 44 мин. 05 сек.</t>
   </si>
   <si>
     <t>1536</t>
@@ -13793,7 +13793,7 @@
     <t>sneg_jr</t>
   </si>
   <si>
-    <t>12 ч. 43 мин. 7 сек.</t>
+    <t>12 ч. 43 мин. 07 сек.</t>
   </si>
   <si>
     <t>1539</t>
@@ -13820,7 +13820,7 @@
     <t>Crimeaman</t>
   </si>
   <si>
-    <t>12 ч. 39 мин. 4 сек.</t>
+    <t>12 ч. 39 мин. 04 сек.</t>
   </si>
   <si>
     <t>1542</t>
@@ -13892,7 +13892,7 @@
     <t>шамик</t>
   </si>
   <si>
-    <t>12 ч. 36 мин. 0 сек.</t>
+    <t>12 ч. 36 мин. 00 сек.</t>
   </si>
   <si>
     <t>1550</t>
@@ -14018,7 +14018,7 @@
     <t>Живой</t>
   </si>
   <si>
-    <t>12 ч. 24 мин. 7 сек.</t>
+    <t>12 ч. 24 мин. 07 сек.</t>
   </si>
   <si>
     <t>1564–1565</t>
@@ -14027,7 +14027,7 @@
     <t>Leg</t>
   </si>
   <si>
-    <t>12 ч. 24 мин. 4 сек.</t>
+    <t>12 ч. 24 мин. 04 сек.</t>
   </si>
   <si>
     <t>flash7701</t>
@@ -14039,7 +14039,7 @@
     <t>Lyuda</t>
   </si>
   <si>
-    <t>12 ч. 24 мин. 1 сек.</t>
+    <t>12 ч. 24 мин. 01 сек.</t>
   </si>
   <si>
     <t>1567</t>
@@ -14174,7 +14174,7 @@
     <t>hilaris</t>
   </si>
   <si>
-    <t>12 ч. 14 мин. 2 сек.</t>
+    <t>12 ч. 14 мин. 02 сек.</t>
   </si>
   <si>
     <t>1582</t>
@@ -14237,7 +14237,7 @@
     <t>Ruslan86</t>
   </si>
   <si>
-    <t>12 ч. 9 мин. 49 сек.</t>
+    <t>12 ч. 09 мин. 49 сек.</t>
   </si>
   <si>
     <t>1589</t>
@@ -14246,7 +14246,7 @@
     <t>Mbl</t>
   </si>
   <si>
-    <t>12 ч. 9 мин. 41 сек.</t>
+    <t>12 ч. 09 мин. 41 сек.</t>
   </si>
   <si>
     <t>1590</t>
@@ -14255,7 +14255,7 @@
     <t>coffeek</t>
   </si>
   <si>
-    <t>12 ч. 9 мин. 35 сек.</t>
+    <t>12 ч. 09 мин. 35 сек.</t>
   </si>
   <si>
     <t>1591</t>
@@ -14264,7 +14264,7 @@
     <t>Alex199</t>
   </si>
   <si>
-    <t>12 ч. 9 мин. 32 сек.</t>
+    <t>12 ч. 09 мин. 32 сек.</t>
   </si>
   <si>
     <t>1592</t>
@@ -14273,7 +14273,7 @@
     <t>chernyshov_ip</t>
   </si>
   <si>
-    <t>12 ч. 9 мин. 24 сек.</t>
+    <t>12 ч. 09 мин. 24 сек.</t>
   </si>
   <si>
     <t>1593</t>
@@ -14282,7 +14282,7 @@
     <t>MirZz</t>
   </si>
   <si>
-    <t>12 ч. 9 мин. 19 сек.</t>
+    <t>12 ч. 09 мин. 19 сек.</t>
   </si>
   <si>
     <t>1594</t>
@@ -14291,7 +14291,7 @@
     <t>В_путь</t>
   </si>
   <si>
-    <t>12 ч. 9 мин. 18 сек.</t>
+    <t>12 ч. 09 мин. 18 сек.</t>
   </si>
   <si>
     <t>1595</t>
@@ -14300,7 +14300,7 @@
     <t>p-kuznetsov</t>
   </si>
   <si>
-    <t>12 ч. 9 мин. 12 сек.</t>
+    <t>12 ч. 09 мин. 12 сек.</t>
   </si>
   <si>
     <t>1596</t>
@@ -14309,7 +14309,7 @@
     <t>2pacshakur</t>
   </si>
   <si>
-    <t>12 ч. 8 мин. 43 сек.</t>
+    <t>12 ч. 08 мин. 43 сек.</t>
   </si>
   <si>
     <t>1597</t>
@@ -14318,7 +14318,7 @@
     <t>MarkD</t>
   </si>
   <si>
-    <t>12 ч. 7 мин. 20 сек.</t>
+    <t>12 ч. 07 мин. 20 сек.</t>
   </si>
   <si>
     <t>1598</t>
@@ -14327,7 +14327,7 @@
     <t>Макрушин</t>
   </si>
   <si>
-    <t>12 ч. 6 мин. 17 сек.</t>
+    <t>12 ч. 06 мин. 17 сек.</t>
   </si>
   <si>
     <t>1599</t>
@@ -14336,7 +14336,7 @@
     <t>TigArt</t>
   </si>
   <si>
-    <t>12 ч. 4 мин. 29 сек.</t>
+    <t>12 ч. 04 мин. 29 сек.</t>
   </si>
   <si>
     <t>1600</t>
@@ -14345,7 +14345,7 @@
     <t>Yankovich</t>
   </si>
   <si>
-    <t>12 ч. 4 мин. 25 сек.</t>
+    <t>12 ч. 04 мин. 25 сек.</t>
   </si>
   <si>
     <t>1601</t>
@@ -14354,7 +14354,7 @@
     <t>quay</t>
   </si>
   <si>
-    <t>12 ч. 4 мин. 14 сек.</t>
+    <t>12 ч. 04 мин. 14 сек.</t>
   </si>
   <si>
     <t>1602</t>
@@ -14363,7 +14363,7 @@
     <t>hazewalker</t>
   </si>
   <si>
-    <t>12 ч. 4 мин. 12 сек.</t>
+    <t>12 ч. 04 мин. 12 сек.</t>
   </si>
   <si>
     <t>1603</t>
@@ -14372,7 +14372,7 @@
     <t>кофемоль</t>
   </si>
   <si>
-    <t>12 ч. 3 мин. 50 сек.</t>
+    <t>12 ч. 03 мин. 50 сек.</t>
   </si>
   <si>
     <t>1604</t>
@@ -14381,7 +14381,7 @@
     <t>_Dron_</t>
   </si>
   <si>
-    <t>12 ч. 3 мин. 44 сек.</t>
+    <t>12 ч. 03 мин. 44 сек.</t>
   </si>
   <si>
     <t>1605</t>
@@ -14390,7 +14390,7 @@
     <t>PlasticPuppet</t>
   </si>
   <si>
-    <t>12 ч. 3 мин. 42 сек.</t>
+    <t>12 ч. 03 мин. 42 сек.</t>
   </si>
   <si>
     <t>1606</t>
@@ -14399,7 +14399,7 @@
     <t>lady_gaga</t>
   </si>
   <si>
-    <t>12 ч. 3 мин. 25 сек.</t>
+    <t>12 ч. 03 мин. 25 сек.</t>
   </si>
   <si>
     <t>1607</t>
@@ -14408,7 +14408,7 @@
     <t>Снус</t>
   </si>
   <si>
-    <t>12 ч. 3 мин. 19 сек.</t>
+    <t>12 ч. 03 мин. 19 сек.</t>
   </si>
   <si>
     <t>1608</t>
@@ -14417,7 +14417,7 @@
     <t>Minelay</t>
   </si>
   <si>
-    <t>12 ч. 3 мин. 7 сек.</t>
+    <t>12 ч. 03 мин. 07 сек.</t>
   </si>
   <si>
     <t>1609</t>
@@ -14471,7 +14471,7 @@
     <t>lewchel</t>
   </si>
   <si>
-    <t>11 ч. 59 мин. 2 сек.</t>
+    <t>11 ч. 59 мин. 02 сек.</t>
   </si>
   <si>
     <t>klaas459</t>
@@ -14501,7 +14501,7 @@
     <t>vezderegit</t>
   </si>
   <si>
-    <t>11 ч. 58 мин. 5 сек.</t>
+    <t>11 ч. 58 мин. 05 сек.</t>
   </si>
   <si>
     <t>1619</t>
@@ -14639,7 +14639,7 @@
     <t>Наконец-то</t>
   </si>
   <si>
-    <t>11 ч. 49 мин. 6 сек.</t>
+    <t>11 ч. 49 мин. 06 сек.</t>
   </si>
   <si>
     <t>1635</t>
@@ -14720,7 +14720,7 @@
     <t>gmaffer</t>
   </si>
   <si>
-    <t>11 ч. 48 мин. 0 сек.</t>
+    <t>11 ч. 48 мин. 00 сек.</t>
   </si>
   <si>
     <t>1644</t>
@@ -14756,7 +14756,7 @@
     <t>Lgg_</t>
   </si>
   <si>
-    <t>11 ч. 44 мин. 2 сек.</t>
+    <t>11 ч. 44 мин. 02 сек.</t>
   </si>
   <si>
     <t>1648–1649</t>
@@ -14777,7 +14777,7 @@
     <t>klinser</t>
   </si>
   <si>
-    <t>11 ч. 42 мин. 0 сек.</t>
+    <t>11 ч. 42 мин. 00 сек.</t>
   </si>
   <si>
     <t>1651</t>
@@ -14813,7 +14813,7 @@
     <t>Qadan</t>
   </si>
   <si>
-    <t>11 ч. 39 мин. 7 сек.</t>
+    <t>11 ч. 39 мин. 07 сек.</t>
   </si>
   <si>
     <t>1655–1656</t>
@@ -14852,7 +14852,7 @@
     <t>Гена8</t>
   </si>
   <si>
-    <t>11 ч. 38 мин. 5 сек.</t>
+    <t>11 ч. 38 мин. 05 сек.</t>
   </si>
   <si>
     <t>1660</t>
@@ -14870,7 +14870,7 @@
     <t>eagle747</t>
   </si>
   <si>
-    <t>11 ч. 37 мин. 9 сек.</t>
+    <t>11 ч. 37 мин. 09 сек.</t>
   </si>
   <si>
     <t>1662</t>
@@ -14879,7 +14879,7 @@
     <t>nata123777</t>
   </si>
   <si>
-    <t>11 ч. 34 мин. 1 сек.</t>
+    <t>11 ч. 34 мин. 01 сек.</t>
   </si>
   <si>
     <t>1663</t>
@@ -15089,7 +15089,7 @@
     <t>Antonio_Zts</t>
   </si>
   <si>
-    <t>11 ч. 27 мин. 6 сек.</t>
+    <t>11 ч. 27 мин. 06 сек.</t>
   </si>
   <si>
     <t>1687</t>
@@ -15116,7 +15116,7 @@
     <t>Klavius</t>
   </si>
   <si>
-    <t>11 ч. 24 мин. 9 сек.</t>
+    <t>11 ч. 24 мин. 09 сек.</t>
   </si>
   <si>
     <t>1690</t>
@@ -15125,7 +15125,7 @@
     <t>НикитаЧернецкий</t>
   </si>
   <si>
-    <t>11 ч. 24 мин. 2 сек.</t>
+    <t>11 ч. 24 мин. 02 сек.</t>
   </si>
   <si>
     <t>1691</t>
@@ -15239,7 +15239,7 @@
     <t>Andriuxa</t>
   </si>
   <si>
-    <t>11 ч. 19 мин. 8 сек.</t>
+    <t>11 ч. 19 мин. 08 сек.</t>
   </si>
   <si>
     <t>1704</t>
@@ -15302,7 +15302,7 @@
     <t>SpazZm</t>
   </si>
   <si>
-    <t>11 ч. 18 мин. 4 сек.</t>
+    <t>11 ч. 18 мин. 04 сек.</t>
   </si>
   <si>
     <t>1711</t>
@@ -15347,7 +15347,7 @@
     <t>MrDenro</t>
   </si>
   <si>
-    <t>11 ч. 14 мин. 5 сек.</t>
+    <t>11 ч. 14 мин. 05 сек.</t>
   </si>
   <si>
     <t>1716</t>
@@ -15356,7 +15356,7 @@
     <t>noob_typist</t>
   </si>
   <si>
-    <t>11 ч. 14 мин. 0 сек.</t>
+    <t>11 ч. 14 мин. 00 сек.</t>
   </si>
   <si>
     <t>1717</t>
@@ -15383,7 +15383,7 @@
     <t>Визирь</t>
   </si>
   <si>
-    <t>11 ч. 13 мин. 3 сек.</t>
+    <t>11 ч. 13 мин. 03 сек.</t>
   </si>
   <si>
     <t>1720</t>
@@ -15401,7 +15401,7 @@
     <t>клавоинка</t>
   </si>
   <si>
-    <t>11 ч. 9 мин. 48 сек.</t>
+    <t>11 ч. 09 мин. 48 сек.</t>
   </si>
   <si>
     <t>1722</t>
@@ -15410,7 +15410,7 @@
     <t>Юргенс_Клинсман</t>
   </si>
   <si>
-    <t>11 ч. 9 мин. 20 сек.</t>
+    <t>11 ч. 09 мин. 20 сек.</t>
   </si>
   <si>
     <t>1723</t>
@@ -15419,7 +15419,7 @@
     <t>ильу</t>
   </si>
   <si>
-    <t>11 ч. 9 мин. 18 сек.</t>
+    <t>11 ч. 09 мин. 18 сек.</t>
   </si>
   <si>
     <t>1724</t>
@@ -15428,7 +15428,7 @@
     <t>elminia</t>
   </si>
   <si>
-    <t>11 ч. 9 мин. 1 сек.</t>
+    <t>11 ч. 09 мин. 01 сек.</t>
   </si>
   <si>
     <t>1725</t>
@@ -15437,7 +15437,7 @@
     <t>Село</t>
   </si>
   <si>
-    <t>11 ч. 8 мин. 52 сек.</t>
+    <t>11 ч. 08 мин. 52 сек.</t>
   </si>
   <si>
     <t>1726</t>
@@ -15446,7 +15446,7 @@
     <t>-Ифигения-</t>
   </si>
   <si>
-    <t>11 ч. 4 мин. 19 сек.</t>
+    <t>11 ч. 04 мин. 19 сек.</t>
   </si>
   <si>
     <t>1727</t>
@@ -15455,7 +15455,7 @@
     <t>АпСтену</t>
   </si>
   <si>
-    <t>11 ч. 4 мин. 8 сек.</t>
+    <t>11 ч. 04 мин. 08 сек.</t>
   </si>
   <si>
     <t>1728</t>
@@ -15464,7 +15464,7 @@
     <t>Ska3o4nik</t>
   </si>
   <si>
-    <t>11 ч. 3 мин. 56 сек.</t>
+    <t>11 ч. 03 мин. 56 сек.</t>
   </si>
   <si>
     <t>1729</t>
@@ -15473,7 +15473,7 @@
     <t>1ilyouha</t>
   </si>
   <si>
-    <t>11 ч. 3 мин. 47 сек.</t>
+    <t>11 ч. 03 мин. 47 сек.</t>
   </si>
   <si>
     <t>1730</t>
@@ -15482,7 +15482,7 @@
     <t>-ivinnic-</t>
   </si>
   <si>
-    <t>11 ч. 3 мин. 38 сек.</t>
+    <t>11 ч. 03 мин. 38 сек.</t>
   </si>
   <si>
     <t>1731</t>
@@ -15491,7 +15491,7 @@
     <t>Gosick</t>
   </si>
   <si>
-    <t>11 ч. 2 мин. 37 сек.</t>
+    <t>11 ч. 02 мин. 37 сек.</t>
   </si>
   <si>
     <t>1732</t>
@@ -15500,7 +15500,7 @@
     <t>blblbl</t>
   </si>
   <si>
-    <t>11 ч. 1 мин. 37 сек.</t>
+    <t>11 ч. 01 мин. 37 сек.</t>
   </si>
   <si>
     <t>1733</t>
@@ -15683,7 +15683,7 @@
     <t>androed</t>
   </si>
   <si>
-    <t>10 ч. 54 мин. 6 сек.</t>
+    <t>10 ч. 54 мин. 06 сек.</t>
   </si>
   <si>
     <t>sia_mikh_</t>
@@ -15833,7 +15833,7 @@
     <t>Boost</t>
   </si>
   <si>
-    <t>10 ч. 49 мин. 7 сек.</t>
+    <t>10 ч. 49 мин. 07 сек.</t>
   </si>
   <si>
     <t>1772</t>
@@ -15917,7 +15917,7 @@
     <t>bronikkk</t>
   </si>
   <si>
-    <t>10 ч. 44 мин. 9 сек.</t>
+    <t>10 ч. 44 мин. 09 сек.</t>
   </si>
   <si>
     <t>zxczxczxc1</t>
@@ -16148,7 +16148,7 @@
     <t>Vergessen</t>
   </si>
   <si>
-    <t>10 ч. 30 мин. 4 сек.</t>
+    <t>10 ч. 30 мин. 04 сек.</t>
   </si>
   <si>
     <t>1809</t>
@@ -16202,7 +16202,7 @@
     <t>Robust</t>
   </si>
   <si>
-    <t>10 ч. 29 мин. 5 сек.</t>
+    <t>10 ч. 29 мин. 05 сек.</t>
   </si>
   <si>
     <t>1815</t>
@@ -16259,7 +16259,7 @@
     <t>Res_Publica</t>
   </si>
   <si>
-    <t>10 ч. 24 мин. 3 сек.</t>
+    <t>10 ч. 24 мин. 03 сек.</t>
   </si>
   <si>
     <t>1822</t>
@@ -16322,7 +16322,7 @@
     <t>Mishan</t>
   </si>
   <si>
-    <t>10 ч. 23 мин. 2 сек.</t>
+    <t>10 ч. 23 мин. 02 сек.</t>
   </si>
   <si>
     <t>1829</t>
@@ -16436,7 +16436,7 @@
     <t>Totosha</t>
   </si>
   <si>
-    <t>10 ч. 14 мин. 6 сек.</t>
+    <t>10 ч. 14 мин. 06 сек.</t>
   </si>
   <si>
     <t>1843</t>
@@ -16445,7 +16445,7 @@
     <t>HeX0</t>
   </si>
   <si>
-    <t>10 ч. 14 мин. 4 сек.</t>
+    <t>10 ч. 14 мин. 04 сек.</t>
   </si>
   <si>
     <t>1844</t>
@@ -16454,7 +16454,7 @@
     <t>vitalijus</t>
   </si>
   <si>
-    <t>10 ч. 14 мин. 3 сек.</t>
+    <t>10 ч. 14 мин. 03 сек.</t>
   </si>
   <si>
     <t>1845</t>
@@ -16511,7 +16511,7 @@
     <t>8RUMIT</t>
   </si>
   <si>
-    <t>10 ч. 9 мин. 27 сек.</t>
+    <t>10 ч. 09 мин. 27 сек.</t>
   </si>
   <si>
     <t>1852</t>
@@ -16520,7 +16520,7 @@
     <t>Vasnody</t>
   </si>
   <si>
-    <t>10 ч. 9 мин. 20 сек.</t>
+    <t>10 ч. 09 мин. 20 сек.</t>
   </si>
   <si>
     <t>1853</t>
@@ -16529,7 +16529,7 @@
     <t>avisz</t>
   </si>
   <si>
-    <t>10 ч. 9 мин. 4 сек.</t>
+    <t>10 ч. 09 мин. 04 сек.</t>
   </si>
   <si>
     <t>1854</t>
@@ -16538,7 +16538,7 @@
     <t>sheeva_v01337</t>
   </si>
   <si>
-    <t>10 ч. 9 мин. 1 сек.</t>
+    <t>10 ч. 09 мин. 01 сек.</t>
   </si>
   <si>
     <t>1855</t>
@@ -16547,7 +16547,7 @@
     <t>NaNol</t>
   </si>
   <si>
-    <t>10 ч. 8 мин. 47 сек.</t>
+    <t>10 ч. 08 мин. 47 сек.</t>
   </si>
   <si>
     <t>1856</t>
@@ -16556,7 +16556,7 @@
     <t>Топтыгин</t>
   </si>
   <si>
-    <t>10 ч. 8 мин. 19 сек.</t>
+    <t>10 ч. 08 мин. 19 сек.</t>
   </si>
   <si>
     <t>1857</t>
@@ -16565,7 +16565,7 @@
     <t>Felikc</t>
   </si>
   <si>
-    <t>10 ч. 8 мин. 15 сек.</t>
+    <t>10 ч. 08 мин. 15 сек.</t>
   </si>
   <si>
     <t>1858</t>
@@ -16574,7 +16574,7 @@
     <t>disfated</t>
   </si>
   <si>
-    <t>10 ч. 7 мин. 57 сек.</t>
+    <t>10 ч. 07 мин. 57 сек.</t>
   </si>
   <si>
     <t>1859</t>
@@ -16583,7 +16583,7 @@
     <t>Лии</t>
   </si>
   <si>
-    <t>10 ч. 7 мин. 27 сек.</t>
+    <t>10 ч. 07 мин. 27 сек.</t>
   </si>
   <si>
     <t>1860</t>
@@ -16592,7 +16592,7 @@
     <t>bdod</t>
   </si>
   <si>
-    <t>10 ч. 4 мин. 39 сек.</t>
+    <t>10 ч. 04 мин. 39 сек.</t>
   </si>
   <si>
     <t>1861</t>
@@ -16601,7 +16601,7 @@
     <t>elkmor</t>
   </si>
   <si>
-    <t>10 ч. 4 мин. 28 сек.</t>
+    <t>10 ч. 04 мин. 28 сек.</t>
   </si>
   <si>
     <t>1862</t>
@@ -16610,7 +16610,7 @@
     <t>Иркут</t>
   </si>
   <si>
-    <t>10 ч. 4 мин. 26 сек.</t>
+    <t>10 ч. 04 мин. 26 сек.</t>
   </si>
   <si>
     <t>1863</t>
@@ -16619,7 +16619,7 @@
     <t>jaberoid</t>
   </si>
   <si>
-    <t>10 ч. 4 мин. 24 сек.</t>
+    <t>10 ч. 04 мин. 24 сек.</t>
   </si>
   <si>
     <t>1864</t>
@@ -16628,7 +16628,7 @@
     <t>петрови4</t>
   </si>
   <si>
-    <t>10 ч. 4 мин. 21 сек.</t>
+    <t>10 ч. 04 мин. 21 сек.</t>
   </si>
   <si>
     <t>1865</t>
@@ -16637,7 +16637,7 @@
     <t>MickeyNN</t>
   </si>
   <si>
-    <t>10 ч. 4 мин. 13 сек.</t>
+    <t>10 ч. 04 мин. 13 сек.</t>
   </si>
   <si>
     <t>1866</t>
@@ -16646,7 +16646,7 @@
     <t>frailleg</t>
   </si>
   <si>
-    <t>10 ч. 4 мин. 8 сек.</t>
+    <t>10 ч. 04 мин. 08 сек.</t>
   </si>
   <si>
     <t>1867</t>
@@ -16655,7 +16655,7 @@
     <t>zabiyka</t>
   </si>
   <si>
-    <t>10 ч. 4 мин. 7 сек.</t>
+    <t>10 ч. 04 мин. 07 сек.</t>
   </si>
   <si>
     <t>1868</t>
@@ -16664,7 +16664,7 @@
     <t>mitra2013</t>
   </si>
   <si>
-    <t>10 ч. 4 мин. 3 сек.</t>
+    <t>10 ч. 04 мин. 03 сек.</t>
   </si>
   <si>
     <t>1869</t>
@@ -16673,7 +16673,7 @@
     <t>Минералка</t>
   </si>
   <si>
-    <t>10 ч. 4 мин. 2 сек.</t>
+    <t>10 ч. 04 мин. 02 сек.</t>
   </si>
   <si>
     <t>1870</t>
@@ -16682,7 +16682,7 @@
     <t>algorithm</t>
   </si>
   <si>
-    <t>10 ч. 3 мин. 58 сек.</t>
+    <t>10 ч. 03 мин. 58 сек.</t>
   </si>
   <si>
     <t>1871</t>
@@ -16691,7 +16691,7 @@
     <t>WOKII</t>
   </si>
   <si>
-    <t>10 ч. 3 мин. 53 сек.</t>
+    <t>10 ч. 03 мин. 53 сек.</t>
   </si>
   <si>
     <t>1872</t>
@@ -16700,7 +16700,7 @@
     <t>Raymank26</t>
   </si>
   <si>
-    <t>10 ч. 3 мин. 31 сек.</t>
+    <t>10 ч. 03 мин. 31 сек.</t>
   </si>
   <si>
     <t>1873</t>
@@ -16709,7 +16709,7 @@
     <t>SergeyD97</t>
   </si>
   <si>
-    <t>10 ч. 2 мин. 59 сек.</t>
+    <t>10 ч. 02 мин. 59 сек.</t>
   </si>
   <si>
     <t>1874</t>
@@ -16718,7 +16718,7 @@
     <t>ELIJAHFOMICHEV</t>
   </si>
   <si>
-    <t>10 ч. 2 мин. 23 сек.</t>
+    <t>10 ч. 02 мин. 23 сек.</t>
   </si>
   <si>
     <t>1875</t>
@@ -16727,7 +16727,7 @@
     <t>Smartzero</t>
   </si>
   <si>
-    <t>10 ч. 1 мин. 23 сек.</t>
+    <t>10 ч. 01 мин. 23 сек.</t>
   </si>
   <si>
     <t>1876</t>
@@ -16736,7 +16736,7 @@
     <t>КлавоЛом</t>
   </si>
   <si>
-    <t>10 ч. 1 мин. 21 сек.</t>
+    <t>10 ч. 01 мин. 21 сек.</t>
   </si>
   <si>
     <t>1877</t>
@@ -16856,7 +16856,7 @@
     <t>Deni4</t>
   </si>
   <si>
-    <t>9 ч. 54 мин. 1 сек.</t>
+    <t>9 ч. 54 мин. 01 сек.</t>
   </si>
   <si>
     <t>saratovlawyer</t>
@@ -17006,7 +17006,7 @@
     <t>Людмила83</t>
   </si>
   <si>
-    <t>9 ч. 44 мин. 9 сек.</t>
+    <t>9 ч. 44 мин. 09 сек.</t>
   </si>
   <si>
     <t>1909</t>
@@ -17015,7 +17015,7 @@
     <t>GAS_BURF</t>
   </si>
   <si>
-    <t>9 ч. 44 мин. 8 сек.</t>
+    <t>9 ч. 44 мин. 08 сек.</t>
   </si>
   <si>
     <t>1910</t>
@@ -17048,7 +17048,7 @@
     <t>jimmy53</t>
   </si>
   <si>
-    <t>9 ч. 41 мин. 5 сек.</t>
+    <t>9 ч. 41 мин. 05 сек.</t>
   </si>
   <si>
     <t>1914</t>
@@ -17114,7 +17114,7 @@
     <t>едут_подонки</t>
   </si>
   <si>
-    <t>9 ч. 39 мин. 7 сек.</t>
+    <t>9 ч. 39 мин. 07 сек.</t>
   </si>
   <si>
     <t>1922</t>
@@ -17414,7 +17414,7 @@
     <t>jeni41</t>
   </si>
   <si>
-    <t>9 ч. 24 мин. 9 сек.</t>
+    <t>9 ч. 24 мин. 09 сек.</t>
   </si>
   <si>
     <t>1956</t>
@@ -17423,7 +17423,7 @@
     <t>Salander</t>
   </si>
   <si>
-    <t>9 ч. 24 мин. 2 сек.</t>
+    <t>9 ч. 24 мин. 02 сек.</t>
   </si>
   <si>
     <t>1957</t>
@@ -17516,7 +17516,7 @@
     <t>mindsculptor</t>
   </si>
   <si>
-    <t>9 ч. 19 мин. 9 сек.</t>
+    <t>9 ч. 19 мин. 09 сек.</t>
   </si>
   <si>
     <t>1968</t>
@@ -17525,7 +17525,7 @@
     <t>bing</t>
   </si>
   <si>
-    <t>9 ч. 19 мин. 7 сек.</t>
+    <t>9 ч. 19 мин. 07 сек.</t>
   </si>
   <si>
     <t>1969</t>
@@ -17654,7 +17654,7 @@
     <t>splogin</t>
   </si>
   <si>
-    <t>9 ч. 14 мин. 8 сек.</t>
+    <t>9 ч. 14 мин. 08 сек.</t>
   </si>
   <si>
     <t>1984</t>
@@ -17663,7 +17663,7 @@
     <t>мегагуру</t>
   </si>
   <si>
-    <t>9 ч. 14 мин. 5 сек.</t>
+    <t>9 ч. 14 мин. 05 сек.</t>
   </si>
   <si>
     <t>1985</t>
@@ -17672,7 +17672,7 @@
     <t>FlyKiller</t>
   </si>
   <si>
-    <t>9 ч. 14 мин. 0 сек.</t>
+    <t>9 ч. 14 мин. 00 сек.</t>
   </si>
   <si>
     <t>1986</t>
@@ -17699,7 +17699,7 @@
     <t>_Nicole_</t>
   </si>
   <si>
-    <t>9 ч. 12 мин. 3 сек.</t>
+    <t>9 ч. 12 мин. 03 сек.</t>
   </si>
   <si>
     <t>1989</t>
@@ -17717,7 +17717,7 @@
     <t>zlpr</t>
   </si>
   <si>
-    <t>9 ч. 9 мин. 56 сек.</t>
+    <t>9 ч. 09 мин. 56 сек.</t>
   </si>
   <si>
     <t>1991</t>
@@ -17726,7 +17726,7 @@
     <t>Marishkina</t>
   </si>
   <si>
-    <t>9 ч. 9 мин. 33 сек.</t>
+    <t>9 ч. 09 мин. 33 сек.</t>
   </si>
   <si>
     <t>1992</t>
@@ -17735,7 +17735,7 @@
     <t>luizakarimova</t>
   </si>
   <si>
-    <t>9 ч. 9 мин. 25 сек.</t>
+    <t>9 ч. 09 мин. 25 сек.</t>
   </si>
   <si>
     <t>1993–1994</t>
@@ -17744,7 +17744,7 @@
     <t>mmc</t>
   </si>
   <si>
-    <t>9 ч. 9 мин. 21 сек.</t>
+    <t>9 ч. 09 мин. 21 сек.</t>
   </si>
   <si>
     <t>vladimirvolga</t>
@@ -17756,7 +17756,7 @@
     <t>Mountain_monk</t>
   </si>
   <si>
-    <t>9 ч. 9 мин. 20 сек.</t>
+    <t>9 ч. 09 мин. 20 сек.</t>
   </si>
   <si>
     <t>1996</t>
@@ -17765,7 +17765,7 @@
     <t>DataKrat</t>
   </si>
   <si>
-    <t>9 ч. 9 мин. 3 сек.</t>
+    <t>9 ч. 09 мин. 03 сек.</t>
   </si>
   <si>
     <t>1997</t>
@@ -17774,7 +17774,7 @@
     <t>Odyssey</t>
   </si>
   <si>
-    <t>9 ч. 8 мин. 55 сек.</t>
+    <t>9 ч. 08 мин. 55 сек.</t>
   </si>
   <si>
     <t>1998–1999</t>
@@ -17783,7 +17783,7 @@
     <t>MacTep</t>
   </si>
   <si>
-    <t>9 ч. 8 мин. 53 сек.</t>
+    <t>9 ч. 08 мин. 53 сек.</t>
   </si>
   <si>
     <t>d4sher</t>
@@ -17795,7 +17795,7 @@
     <t>Alice_</t>
   </si>
   <si>
-    <t>9 ч. 8 мин. 46 сек.</t>
+    <t>9 ч. 08 мин. 46 сек.</t>
   </si>
   <si>
     <t>2001</t>
@@ -17804,7 +17804,7 @@
     <t>кешаня</t>
   </si>
   <si>
-    <t>9 ч. 8 мин. 45 сек.</t>
+    <t>9 ч. 08 мин. 45 сек.</t>
   </si>
   <si>
     <t>2002</t>
@@ -17813,7 +17813,7 @@
     <t>nbiektashiev</t>
   </si>
   <si>
-    <t>9 ч. 8 мин. 0 сек.</t>
+    <t>9 ч. 08 мин. 00 сек.</t>
   </si>
   <si>
     <t>2003</t>
@@ -17822,7 +17822,7 @@
     <t>Adinochka</t>
   </si>
   <si>
-    <t>9 ч. 7 мин. 53 сек.</t>
+    <t>9 ч. 07 мин. 53 сек.</t>
   </si>
   <si>
     <t>2004</t>
@@ -17831,7 +17831,7 @@
     <t>maxmaster666</t>
   </si>
   <si>
-    <t>9 ч. 7 мин. 43 сек.</t>
+    <t>9 ч. 07 мин. 43 сек.</t>
   </si>
   <si>
     <t>2005</t>
@@ -17840,7 +17840,7 @@
     <t>OnlyHim</t>
   </si>
   <si>
-    <t>9 ч. 7 мин. 30 сек.</t>
+    <t>9 ч. 07 мин. 30 сек.</t>
   </si>
   <si>
     <t>2006–2008</t>
@@ -17849,7 +17849,7 @@
     <t>liga111</t>
   </si>
   <si>
-    <t>9 ч. 4 мин. 42 сек.</t>
+    <t>9 ч. 04 мин. 42 сек.</t>
   </si>
   <si>
     <t>Кусака</t>
@@ -17864,7 +17864,7 @@
     <t>у_гонщица</t>
   </si>
   <si>
-    <t>9 ч. 4 мин. 33 сек.</t>
+    <t>9 ч. 04 мин. 33 сек.</t>
   </si>
   <si>
     <t>Zzzzouoo</t>
@@ -17876,7 +17876,7 @@
     <t>kchota</t>
   </si>
   <si>
-    <t>9 ч. 4 мин. 27 сек.</t>
+    <t>9 ч. 04 мин. 27 сек.</t>
   </si>
   <si>
     <t>2012</t>
@@ -17885,7 +17885,7 @@
     <t>ppetrov</t>
   </si>
   <si>
-    <t>9 ч. 4 мин. 25 сек.</t>
+    <t>9 ч. 04 мин. 25 сек.</t>
   </si>
   <si>
     <t>2013</t>
@@ -17894,7 +17894,7 @@
     <t>dzheo_liliya</t>
   </si>
   <si>
-    <t>9 ч. 4 мин. 23 сек.</t>
+    <t>9 ч. 04 мин. 23 сек.</t>
   </si>
   <si>
     <t>2014</t>
@@ -17903,7 +17903,7 @@
     <t>AaalexIV</t>
   </si>
   <si>
-    <t>9 ч. 4 мин. 18 сек.</t>
+    <t>9 ч. 04 мин. 18 сек.</t>
   </si>
   <si>
     <t>2015–2016</t>
@@ -17912,7 +17912,7 @@
     <t>sasha561</t>
   </si>
   <si>
-    <t>9 ч. 4 мин. 13 сек.</t>
+    <t>9 ч. 04 мин. 13 сек.</t>
   </si>
   <si>
     <t>муслим</t>
@@ -17924,7 +17924,7 @@
     <t>miran</t>
   </si>
   <si>
-    <t>9 ч. 4 мин. 11 сек.</t>
+    <t>9 ч. 04 мин. 11 сек.</t>
   </si>
   <si>
     <t>2018</t>
@@ -17933,7 +17933,7 @@
     <t>DM-x</t>
   </si>
   <si>
-    <t>9 ч. 4 мин. 3 сек.</t>
+    <t>9 ч. 04 мин. 03 сек.</t>
   </si>
   <si>
     <t>2019</t>
@@ -17942,7 +17942,7 @@
     <t>Andrew8</t>
   </si>
   <si>
-    <t>9 ч. 3 мин. 58 сек.</t>
+    <t>9 ч. 03 мин. 58 сек.</t>
   </si>
   <si>
     <t>2020</t>
@@ -17951,7 +17951,7 @@
     <t>MagnumPI</t>
   </si>
   <si>
-    <t>9 ч. 3 мин. 57 сек.</t>
+    <t>9 ч. 03 мин. 57 сек.</t>
   </si>
   <si>
     <t>2021</t>
@@ -17960,7 +17960,7 @@
     <t>gevis</t>
   </si>
   <si>
-    <t>9 ч. 3 мин. 50 сек.</t>
+    <t>9 ч. 03 мин. 50 сек.</t>
   </si>
   <si>
     <t>2022</t>
@@ -17969,7 +17969,7 @@
     <t>Adigas</t>
   </si>
   <si>
-    <t>9 ч. 3 мин. 48 сек.</t>
+    <t>9 ч. 03 мин. 48 сек.</t>
   </si>
   <si>
     <t>2023</t>
@@ -17978,7 +17978,7 @@
     <t>stanislavsib</t>
   </si>
   <si>
-    <t>9 ч. 3 мин. 31 сек.</t>
+    <t>9 ч. 03 мин. 31 сек.</t>
   </si>
   <si>
     <t>2024</t>
@@ -17987,7 +17987,7 @@
     <t>mopar</t>
   </si>
   <si>
-    <t>9 ч. 3 мин. 22 сек.</t>
+    <t>9 ч. 03 мин. 22 сек.</t>
   </si>
   <si>
     <t>2025</t>
@@ -17996,7 +17996,7 @@
     <t>бебебе</t>
   </si>
   <si>
-    <t>9 ч. 3 мин. 18 сек.</t>
+    <t>9 ч. 03 мин. 18 сек.</t>
   </si>
   <si>
     <t>2026</t>
@@ -18005,7 +18005,7 @@
     <t>Lexurev</t>
   </si>
   <si>
-    <t>9 ч. 3 мин. 0 сек.</t>
+    <t>9 ч. 03 мин. 00 сек.</t>
   </si>
   <si>
     <t>2027</t>
@@ -18014,7 +18014,7 @@
     <t>Lunaries</t>
   </si>
   <si>
-    <t>9 ч. 1 мин. 48 сек.</t>
+    <t>9 ч. 01 мин. 48 сек.</t>
   </si>
   <si>
     <t>2028</t>
@@ -18023,7 +18023,7 @@
     <t>artemD</t>
   </si>
   <si>
-    <t>9 ч. 1 мин. 27 сек.</t>
+    <t>9 ч. 01 мин. 27 сек.</t>
   </si>
   <si>
     <t>2029</t>
@@ -18086,7 +18086,7 @@
     <t>Вова_10</t>
   </si>
   <si>
-    <t>8 ч. 59 мин. 2 сек.</t>
+    <t>8 ч. 59 мин. 02 сек.</t>
   </si>
   <si>
     <t>2036</t>
@@ -18131,7 +18131,7 @@
     <t>nezabivaemiy</t>
   </si>
   <si>
-    <t>8 ч. 55 мин. 5 сек.</t>
+    <t>8 ч. 55 мин. 05 сек.</t>
   </si>
   <si>
     <t>2041</t>
@@ -18179,7 +18179,7 @@
     <t>oshni</t>
   </si>
   <si>
-    <t>8 ч. 54 мин. 9 сек.</t>
+    <t>8 ч. 54 мин. 09 сек.</t>
   </si>
   <si>
     <t>2047</t>
@@ -18215,7 +18215,7 @@
     <t>славный</t>
   </si>
   <si>
-    <t>8 ч. 52 мин. 8 сек.</t>
+    <t>8 ч. 52 мин. 08 сек.</t>
   </si>
   <si>
     <t>2051</t>
@@ -18233,7 +18233,7 @@
     <t>jkovalenko</t>
   </si>
   <si>
-    <t>8 ч. 50 мин. 5 сек.</t>
+    <t>8 ч. 50 мин. 05 сек.</t>
   </si>
   <si>
     <t>2053</t>
@@ -18278,7 +18278,7 @@
     <t>CoK</t>
   </si>
   <si>
-    <t>8 ч. 49 мин. 9 сек.</t>
+    <t>8 ч. 49 мин. 09 сек.</t>
   </si>
   <si>
     <t>2058–2059</t>
@@ -18287,7 +18287,7 @@
     <t>Dimaleks</t>
   </si>
   <si>
-    <t>8 ч. 49 мин. 8 сек.</t>
+    <t>8 ч. 49 мин. 08 сек.</t>
   </si>
   <si>
     <t>bugayono4ek</t>
@@ -18299,7 +18299,7 @@
     <t>morozovlalex</t>
   </si>
   <si>
-    <t>8 ч. 49 мин. 3 сек.</t>
+    <t>8 ч. 49 мин. 03 сек.</t>
   </si>
   <si>
     <t>2061</t>
@@ -18371,7 +18371,7 @@
     <t>lChi</t>
   </si>
   <si>
-    <t>8 ч. 48 мин. 6 сек.</t>
+    <t>8 ч. 48 мин. 06 сек.</t>
   </si>
   <si>
     <t>2069</t>
@@ -18380,7 +18380,7 @@
     <t>Nataletik</t>
   </si>
   <si>
-    <t>8 ч. 47 мин. 3 сек.</t>
+    <t>8 ч. 47 мин. 03 сек.</t>
   </si>
   <si>
     <t>2070</t>
@@ -18578,7 +18578,7 @@
     <t>Ramazan</t>
   </si>
   <si>
-    <t>8 ч. 39 мин. 9 сек.</t>
+    <t>8 ч. 39 мин. 09 сек.</t>
   </si>
   <si>
     <t>2094</t>
@@ -18587,7 +18587,7 @@
     <t>PTB_7z</t>
   </si>
   <si>
-    <t>8 ч. 39 мин. 3 сек.</t>
+    <t>8 ч. 39 мин. 03 сек.</t>
   </si>
   <si>
     <t>2095</t>
@@ -18764,7 +18764,7 @@
     <t>Mira81</t>
   </si>
   <si>
-    <t>8 ч. 34 мин. 9 сек.</t>
+    <t>8 ч. 34 мин. 09 сек.</t>
   </si>
   <si>
     <t>Eleilas</t>
@@ -18776,7 +18776,7 @@
     <t>О0о</t>
   </si>
   <si>
-    <t>8 ч. 34 мин. 5 сек.</t>
+    <t>8 ч. 34 мин. 05 сек.</t>
   </si>
   <si>
     <t>lirpost</t>
@@ -18788,7 +18788,7 @@
     <t>wakiko</t>
   </si>
   <si>
-    <t>8 ч. 34 мин. 2 сек.</t>
+    <t>8 ч. 34 мин. 02 сек.</t>
   </si>
   <si>
     <t>2120</t>
@@ -18797,7 +18797,7 @@
     <t>SirenScream</t>
   </si>
   <si>
-    <t>8 ч. 34 мин. 1 сек.</t>
+    <t>8 ч. 34 мин. 01 сек.</t>
   </si>
   <si>
     <t>2121–2122</t>
@@ -18806,7 +18806,7 @@
     <t>Kartner</t>
   </si>
   <si>
-    <t>8 ч. 34 мин. 0 сек.</t>
+    <t>8 ч. 34 мин. 00 сек.</t>
   </si>
   <si>
     <t>Катрен</t>
@@ -19019,7 +19019,7 @@
     <t>Bezumnyj_pioner</t>
   </si>
   <si>
-    <t>8 ч. 24 мин. 2 сек.</t>
+    <t>8 ч. 24 мин. 02 сек.</t>
   </si>
   <si>
     <t>2149</t>
@@ -19091,7 +19091,7 @@
     <t>DenisConqueror</t>
   </si>
   <si>
-    <t>8 ч. 20 мин. 7 сек.</t>
+    <t>8 ч. 20 мин. 07 сек.</t>
   </si>
   <si>
     <t>2157</t>
@@ -19211,7 +19211,7 @@
     <t>Модильяни</t>
   </si>
   <si>
-    <t>8 ч. 19 мин. 9 сек.</t>
+    <t>8 ч. 19 мин. 09 сек.</t>
   </si>
   <si>
     <t>ford8</t>
@@ -19223,7 +19223,7 @@
     <t>st46834</t>
   </si>
   <si>
-    <t>8 ч. 19 мин. 8 сек.</t>
+    <t>8 ч. 19 мин. 08 сек.</t>
   </si>
   <si>
     <t>2173</t>
@@ -19232,7 +19232,7 @@
     <t>Herbert</t>
   </si>
   <si>
-    <t>8 ч. 19 мин. 6 сек.</t>
+    <t>8 ч. 19 мин. 06 сек.</t>
   </si>
   <si>
     <t>2174</t>
